--- a/downloads/data/marathon.xlsx
+++ b/downloads/data/marathon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecri/Dropbox/WebPage/alecri.github.io/downloads/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -110,9 +110,6 @@
     <t>3.0 to 4.9</t>
   </si>
   <si>
-    <t>s135</t>
-  </si>
-  <si>
     <t>urit3p</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;= 135</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>nas135</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:R489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,8 +449,11 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -456,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -503,7 +509,7 @@
         <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -541,7 +547,7 @@
         <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -579,7 +585,7 @@
         <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -611,7 +617,7 @@
         <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -652,7 +658,7 @@
         <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -690,7 +696,7 @@
         <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -731,7 +737,7 @@
         <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -772,7 +778,7 @@
         <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -813,7 +819,7 @@
         <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -854,7 +860,7 @@
         <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -895,7 +901,7 @@
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -936,7 +942,7 @@
         <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -977,7 +983,7 @@
         <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1018,7 +1024,7 @@
         <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1059,7 +1065,7 @@
         <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1100,7 +1106,7 @@
         <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1141,7 +1147,7 @@
         <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1179,7 +1185,7 @@
         <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -1232,7 +1238,7 @@
         <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -1285,7 +1291,7 @@
         <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -1341,7 +1347,7 @@
         <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -1397,7 +1403,7 @@
         <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -1453,7 +1459,7 @@
         <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -1509,7 +1515,7 @@
         <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -1565,7 +1571,7 @@
         <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -1618,7 +1624,7 @@
         <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -1674,7 +1680,7 @@
         <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -1730,7 +1736,7 @@
         <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -1786,7 +1792,7 @@
         <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -1842,7 +1848,7 @@
         <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -1898,7 +1904,7 @@
         <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -1951,7 +1957,7 @@
         <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -2007,7 +2013,7 @@
         <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -2063,7 +2069,7 @@
         <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -2119,7 +2125,7 @@
         <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -2175,7 +2181,7 @@
         <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -2231,7 +2237,7 @@
         <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -2287,7 +2293,7 @@
         <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -2343,7 +2349,7 @@
         <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -2399,7 +2405,7 @@
         <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -2455,7 +2461,7 @@
         <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -2511,7 +2517,7 @@
         <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -2567,7 +2573,7 @@
         <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -2623,7 +2629,7 @@
         <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -2679,7 +2685,7 @@
         <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -2735,7 +2741,7 @@
         <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -2791,7 +2797,7 @@
         <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -2847,7 +2853,7 @@
         <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
@@ -2903,7 +2909,7 @@
         <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
@@ -2959,7 +2965,7 @@
         <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -3015,7 +3021,7 @@
         <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -3071,7 +3077,7 @@
         <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -3127,7 +3133,7 @@
         <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -3180,7 +3186,7 @@
         <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -3236,7 +3242,7 @@
         <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -3289,7 +3295,7 @@
         <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -3345,7 +3351,7 @@
         <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -3401,7 +3407,7 @@
         <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -3454,7 +3460,7 @@
         <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -3510,7 +3516,7 @@
         <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -3551,7 +3557,7 @@
         <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -3607,7 +3613,7 @@
         <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -3663,7 +3669,7 @@
         <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -3719,7 +3725,7 @@
         <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -3775,7 +3781,7 @@
         <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -3828,7 +3834,7 @@
         <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -3884,7 +3890,7 @@
         <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -3940,7 +3946,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -3996,7 +4002,7 @@
         <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -4052,7 +4058,7 @@
         <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -4108,7 +4114,7 @@
         <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -4164,7 +4170,7 @@
         <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -4217,7 +4223,7 @@
         <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -4270,7 +4276,7 @@
         <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -4326,7 +4332,7 @@
         <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -4382,7 +4388,7 @@
         <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -4435,7 +4441,7 @@
         <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -4491,7 +4497,7 @@
         <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
@@ -4547,7 +4553,7 @@
         <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -4594,7 +4600,7 @@
         <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -4650,7 +4656,7 @@
         <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -4706,7 +4712,7 @@
         <v>140</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -4762,7 +4768,7 @@
         <v>147</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -4815,7 +4821,7 @@
         <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
         <v>17</v>
@@ -4871,7 +4877,7 @@
         <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -4927,7 +4933,7 @@
         <v>140</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
@@ -4977,7 +4983,7 @@
         <v>145</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
         <v>1</v>
@@ -5033,7 +5039,7 @@
         <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
@@ -5086,7 +5092,7 @@
         <v>139</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
@@ -5142,7 +5148,7 @@
         <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
@@ -5198,7 +5204,7 @@
         <v>143</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
@@ -5254,7 +5260,7 @@
         <v>142</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -5310,7 +5316,7 @@
         <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -5366,7 +5372,7 @@
         <v>137</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -5422,7 +5428,7 @@
         <v>137</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -5478,7 +5484,7 @@
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -5534,7 +5540,7 @@
         <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
@@ -5590,7 +5596,7 @@
         <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -5640,7 +5646,7 @@
         <v>138</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -5696,7 +5702,7 @@
         <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -5752,7 +5758,7 @@
         <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
@@ -5802,7 +5808,7 @@
         <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -5852,7 +5858,7 @@
         <v>142</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -5908,7 +5914,7 @@
         <v>141</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
@@ -5964,7 +5970,7 @@
         <v>142</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -6020,7 +6026,7 @@
         <v>136</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
         <v>17</v>
@@ -6073,7 +6079,7 @@
         <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -6129,7 +6135,7 @@
         <v>136</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
@@ -6185,7 +6191,7 @@
         <v>136</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
@@ -6238,7 +6244,7 @@
         <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -6294,7 +6300,7 @@
         <v>140</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -6350,7 +6356,7 @@
         <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
@@ -6406,7 +6412,7 @@
         <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
@@ -6462,7 +6468,7 @@
         <v>144</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -6518,7 +6524,7 @@
         <v>144</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
         <v>17</v>
@@ -6574,7 +6580,7 @@
         <v>136</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -6624,7 +6630,7 @@
         <v>137</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -6677,7 +6683,7 @@
         <v>142</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
@@ -6733,7 +6739,7 @@
         <v>148</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
@@ -6789,7 +6795,7 @@
         <v>139</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
@@ -6842,7 +6848,7 @@
         <v>140</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -6898,7 +6904,7 @@
         <v>144</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -6954,7 +6960,7 @@
         <v>153</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -7010,7 +7016,7 @@
         <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D125" t="s">
         <v>17</v>
@@ -7066,7 +7072,7 @@
         <v>142</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -7122,7 +7128,7 @@
         <v>144</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -7178,7 +7184,7 @@
         <v>139</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -7234,7 +7240,7 @@
         <v>141</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129" t="s">
         <v>1</v>
@@ -7290,7 +7296,7 @@
         <v>152</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -7346,7 +7352,7 @@
         <v>141</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
         <v>17</v>
@@ -7402,7 +7408,7 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -7458,7 +7464,7 @@
         <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
@@ -7514,7 +7520,7 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -7570,7 +7576,7 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -7626,7 +7632,7 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -7682,7 +7688,7 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
         <v>1</v>
@@ -7735,7 +7741,7 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -7791,7 +7797,7 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
         <v>17</v>
@@ -7838,7 +7844,7 @@
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
@@ -7894,7 +7900,7 @@
         <v>138</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
@@ -7935,7 +7941,7 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
@@ -7991,7 +7997,7 @@
         <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -8047,7 +8053,7 @@
         <v>136</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D144" t="s">
         <v>17</v>
@@ -8103,7 +8109,7 @@
         <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D145" t="s">
         <v>17</v>
@@ -8159,7 +8165,7 @@
         <v>142</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -8215,7 +8221,7 @@
         <v>141</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
@@ -8268,7 +8274,7 @@
         <v>144</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -8321,7 +8327,7 @@
         <v>144</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
         <v>17</v>
@@ -8374,7 +8380,7 @@
         <v>144</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
         <v>17</v>
@@ -8430,7 +8436,7 @@
         <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
         <v>17</v>
@@ -8486,7 +8492,7 @@
         <v>138</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D152" t="s">
         <v>17</v>
@@ -8539,7 +8545,7 @@
         <v>144</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D153" t="s">
         <v>17</v>
@@ -8595,7 +8601,7 @@
         <v>137</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -8648,7 +8654,7 @@
         <v>150</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -8704,7 +8710,7 @@
         <v>145</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D156" t="s">
         <v>17</v>
@@ -8760,7 +8766,7 @@
         <v>141</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
@@ -8816,7 +8822,7 @@
         <v>144</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D158" t="s">
         <v>17</v>
@@ -8872,7 +8878,7 @@
         <v>137</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -8928,7 +8934,7 @@
         <v>136</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D160" t="s">
         <v>17</v>
@@ -8981,7 +8987,7 @@
         <v>141</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D161" t="s">
         <v>1</v>
@@ -9037,7 +9043,7 @@
         <v>147</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D162" t="s">
         <v>17</v>
@@ -9093,7 +9099,7 @@
         <v>140</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D163" t="s">
         <v>17</v>
@@ -9149,7 +9155,7 @@
         <v>138</v>
       </c>
       <c r="C164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D164" t="s">
         <v>17</v>
@@ -9205,7 +9211,7 @@
         <v>144</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D165" t="s">
         <v>1</v>
@@ -9261,7 +9267,7 @@
         <v>141</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D166" t="s">
         <v>17</v>
@@ -9317,7 +9323,7 @@
         <v>149</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D167" t="s">
         <v>17</v>
@@ -9373,7 +9379,7 @@
         <v>138</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D168" t="s">
         <v>17</v>
@@ -9429,7 +9435,7 @@
         <v>146</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D169" t="s">
         <v>17</v>
@@ -9485,7 +9491,7 @@
         <v>140</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D170" t="s">
         <v>17</v>
@@ -9541,7 +9547,7 @@
         <v>142</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D171" t="s">
         <v>17</v>
@@ -9597,7 +9603,7 @@
         <v>141</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D172" t="s">
         <v>17</v>
@@ -9653,7 +9659,7 @@
         <v>140</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
@@ -9709,7 +9715,7 @@
         <v>137</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D174" t="s">
         <v>17</v>
@@ -9765,7 +9771,7 @@
         <v>141</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D175" t="s">
         <v>17</v>
@@ -9821,7 +9827,7 @@
         <v>140</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
         <v>17</v>
@@ -9877,7 +9883,7 @@
         <v>142</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D177" t="s">
         <v>17</v>
@@ -9933,7 +9939,7 @@
         <v>156</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D178" t="s">
         <v>17</v>
@@ -9989,7 +9995,7 @@
         <v>144</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D179" t="s">
         <v>17</v>
@@ -10045,7 +10051,7 @@
         <v>137</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D180" t="s">
         <v>17</v>
@@ -10101,7 +10107,7 @@
         <v>144</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D181" t="s">
         <v>17</v>
@@ -10157,7 +10163,7 @@
         <v>138</v>
       </c>
       <c r="C182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D182" t="s">
         <v>1</v>
@@ -10213,7 +10219,7 @@
         <v>140</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D183" t="s">
         <v>1</v>
@@ -10269,7 +10275,7 @@
         <v>139</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D184" t="s">
         <v>1</v>
@@ -10325,7 +10331,7 @@
         <v>145</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D185" t="s">
         <v>17</v>
@@ -10372,7 +10378,7 @@
         <v>144</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D186" t="s">
         <v>1</v>
@@ -10428,7 +10434,7 @@
         <v>145</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D187" t="s">
         <v>17</v>
@@ -10484,7 +10490,7 @@
         <v>137</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D188" t="s">
         <v>1</v>
@@ -10540,7 +10546,7 @@
         <v>141</v>
       </c>
       <c r="C189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D189" t="s">
         <v>17</v>
@@ -10596,7 +10602,7 @@
         <v>142</v>
       </c>
       <c r="C190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D190" t="s">
         <v>17</v>
@@ -10652,7 +10658,7 @@
         <v>141</v>
       </c>
       <c r="C191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D191" t="s">
         <v>17</v>
@@ -10708,7 +10714,7 @@
         <v>139</v>
       </c>
       <c r="C192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D192" t="s">
         <v>17</v>
@@ -10764,7 +10770,7 @@
         <v>145</v>
       </c>
       <c r="C193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D193" t="s">
         <v>17</v>
@@ -10817,7 +10823,7 @@
         <v>137</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D194" t="s">
         <v>1</v>
@@ -10873,7 +10879,7 @@
         <v>144</v>
       </c>
       <c r="C195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D195" t="s">
         <v>17</v>
@@ -10923,7 +10929,7 @@
         <v>148</v>
       </c>
       <c r="C196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D196" t="s">
         <v>17</v>
@@ -10979,7 +10985,7 @@
         <v>142</v>
       </c>
       <c r="C197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D197" t="s">
         <v>1</v>
@@ -11032,7 +11038,7 @@
         <v>144</v>
       </c>
       <c r="C198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D198" t="s">
         <v>17</v>
@@ -11088,7 +11094,7 @@
         <v>141</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D199" t="s">
         <v>17</v>
@@ -11144,7 +11150,7 @@
         <v>142</v>
       </c>
       <c r="C200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D200" t="s">
         <v>1</v>
@@ -11200,7 +11206,7 @@
         <v>146</v>
       </c>
       <c r="C201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D201" t="s">
         <v>17</v>
@@ -11256,7 +11262,7 @@
         <v>141</v>
       </c>
       <c r="C202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D202" t="s">
         <v>17</v>
@@ -11312,7 +11318,7 @@
         <v>145</v>
       </c>
       <c r="C203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D203" t="s">
         <v>17</v>
@@ -11359,7 +11365,7 @@
         <v>139</v>
       </c>
       <c r="C204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D204" t="s">
         <v>17</v>
@@ -11415,7 +11421,7 @@
         <v>142</v>
       </c>
       <c r="C205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D205" t="s">
         <v>17</v>
@@ -11471,7 +11477,7 @@
         <v>140</v>
       </c>
       <c r="C206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D206" t="s">
         <v>17</v>
@@ -11521,7 +11527,7 @@
         <v>143</v>
       </c>
       <c r="C207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D207" t="s">
         <v>17</v>
@@ -11577,7 +11583,7 @@
         <v>145</v>
       </c>
       <c r="C208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D208" t="s">
         <v>1</v>
@@ -11633,7 +11639,7 @@
         <v>137</v>
       </c>
       <c r="C209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D209" t="s">
         <v>17</v>
@@ -11689,7 +11695,7 @@
         <v>146</v>
       </c>
       <c r="C210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D210" t="s">
         <v>1</v>
@@ -11745,7 +11751,7 @@
         <v>147</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D211" t="s">
         <v>17</v>
@@ -11801,7 +11807,7 @@
         <v>138</v>
       </c>
       <c r="C212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D212" t="s">
         <v>17</v>
@@ -11857,7 +11863,7 @@
         <v>140</v>
       </c>
       <c r="C213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D213" t="s">
         <v>17</v>
@@ -11913,7 +11919,7 @@
         <v>138</v>
       </c>
       <c r="C214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D214" t="s">
         <v>17</v>
@@ -11969,7 +11975,7 @@
         <v>146</v>
       </c>
       <c r="C215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D215" t="s">
         <v>1</v>
@@ -12025,7 +12031,7 @@
         <v>142</v>
       </c>
       <c r="C216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D216" t="s">
         <v>17</v>
@@ -12081,7 +12087,7 @@
         <v>142</v>
       </c>
       <c r="C217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D217" t="s">
         <v>17</v>
@@ -12137,7 +12143,7 @@
         <v>141</v>
       </c>
       <c r="C218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D218" t="s">
         <v>17</v>
@@ -12190,7 +12196,7 @@
         <v>140</v>
       </c>
       <c r="C219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D219" t="s">
         <v>17</v>
@@ -12246,7 +12252,7 @@
         <v>140</v>
       </c>
       <c r="C220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D220" t="s">
         <v>1</v>
@@ -12299,7 +12305,7 @@
         <v>142</v>
       </c>
       <c r="C221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D221" t="s">
         <v>1</v>
@@ -12355,7 +12361,7 @@
         <v>140</v>
       </c>
       <c r="C222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D222" t="s">
         <v>17</v>
@@ -12411,7 +12417,7 @@
         <v>144</v>
       </c>
       <c r="C223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D223" t="s">
         <v>17</v>
@@ -12467,7 +12473,7 @@
         <v>140</v>
       </c>
       <c r="C224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D224" t="s">
         <v>1</v>
@@ -12523,7 +12529,7 @@
         <v>142</v>
       </c>
       <c r="C225" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D225" t="s">
         <v>17</v>
@@ -12576,7 +12582,7 @@
         <v>146</v>
       </c>
       <c r="C226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D226" t="s">
         <v>17</v>
@@ -12632,7 +12638,7 @@
         <v>148</v>
       </c>
       <c r="C227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D227" t="s">
         <v>17</v>
@@ -12685,7 +12691,7 @@
         <v>145</v>
       </c>
       <c r="C228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D228" t="s">
         <v>17</v>
@@ -12741,7 +12747,7 @@
         <v>144</v>
       </c>
       <c r="C229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D229" t="s">
         <v>17</v>
@@ -12797,7 +12803,7 @@
         <v>141</v>
       </c>
       <c r="C230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D230" t="s">
         <v>17</v>
@@ -12853,7 +12859,7 @@
         <v>141</v>
       </c>
       <c r="C231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D231" t="s">
         <v>17</v>
@@ -12909,7 +12915,7 @@
         <v>143</v>
       </c>
       <c r="C232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D232" t="s">
         <v>17</v>
@@ -12965,7 +12971,7 @@
         <v>142</v>
       </c>
       <c r="C233" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D233" t="s">
         <v>17</v>
@@ -13021,7 +13027,7 @@
         <v>145</v>
       </c>
       <c r="C234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D234" t="s">
         <v>17</v>
@@ -13077,7 +13083,7 @@
         <v>139</v>
       </c>
       <c r="C235" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D235" t="s">
         <v>17</v>
@@ -13133,7 +13139,7 @@
         <v>145</v>
       </c>
       <c r="C236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D236" t="s">
         <v>17</v>
@@ -13189,7 +13195,7 @@
         <v>138</v>
       </c>
       <c r="C237" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D237" t="s">
         <v>17</v>
@@ -13242,7 +13248,7 @@
         <v>140</v>
       </c>
       <c r="C238" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D238" t="s">
         <v>17</v>
@@ -13298,7 +13304,7 @@
         <v>147</v>
       </c>
       <c r="C239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D239" t="s">
         <v>17</v>
@@ -13342,7 +13348,7 @@
         <v>137</v>
       </c>
       <c r="C240" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D240" t="s">
         <v>17</v>
@@ -13398,7 +13404,7 @@
         <v>142</v>
       </c>
       <c r="C241" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D241" t="s">
         <v>17</v>
@@ -13451,7 +13457,7 @@
         <v>140</v>
       </c>
       <c r="C242" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D242" t="s">
         <v>17</v>
@@ -13507,7 +13513,7 @@
         <v>141</v>
       </c>
       <c r="C243" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D243" t="s">
         <v>17</v>
@@ -13563,7 +13569,7 @@
         <v>138</v>
       </c>
       <c r="C244" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D244" t="s">
         <v>17</v>
@@ -13619,7 +13625,7 @@
         <v>145</v>
       </c>
       <c r="C245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D245" t="s">
         <v>17</v>
@@ -13675,7 +13681,7 @@
         <v>151</v>
       </c>
       <c r="C246" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D246" t="s">
         <v>17</v>
@@ -13731,7 +13737,7 @@
         <v>144</v>
       </c>
       <c r="C247" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D247" t="s">
         <v>17</v>
@@ -13787,7 +13793,7 @@
         <v>141</v>
       </c>
       <c r="C248" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D248" t="s">
         <v>17</v>
@@ -13843,7 +13849,7 @@
         <v>143</v>
       </c>
       <c r="C249" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D249" t="s">
         <v>17</v>
@@ -13899,7 +13905,7 @@
         <v>142</v>
       </c>
       <c r="C250" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D250" t="s">
         <v>17</v>
@@ -13955,7 +13961,7 @@
         <v>141</v>
       </c>
       <c r="C251" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D251" t="s">
         <v>17</v>
@@ -14011,7 +14017,7 @@
         <v>139</v>
       </c>
       <c r="C252" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D252" t="s">
         <v>17</v>
@@ -14067,7 +14073,7 @@
         <v>140</v>
       </c>
       <c r="C253" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D253" t="s">
         <v>17</v>
@@ -14120,7 +14126,7 @@
         <v>139</v>
       </c>
       <c r="C254" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D254" t="s">
         <v>1</v>
@@ -14173,7 +14179,7 @@
         <v>138</v>
       </c>
       <c r="C255" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D255" t="s">
         <v>1</v>
@@ -14226,7 +14232,7 @@
         <v>139</v>
       </c>
       <c r="C256" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D256" t="s">
         <v>17</v>
@@ -14282,7 +14288,7 @@
         <v>144</v>
       </c>
       <c r="C257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D257" t="s">
         <v>17</v>
@@ -14332,7 +14338,7 @@
         <v>147</v>
       </c>
       <c r="C258" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D258" t="s">
         <v>1</v>
@@ -14388,7 +14394,7 @@
         <v>142</v>
       </c>
       <c r="C259" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D259" t="s">
         <v>17</v>
@@ -14441,7 +14447,7 @@
         <v>141</v>
       </c>
       <c r="C260" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D260" t="s">
         <v>17</v>
@@ -14497,7 +14503,7 @@
         <v>138</v>
       </c>
       <c r="C261" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D261" t="s">
         <v>17</v>
@@ -14550,7 +14556,7 @@
         <v>138</v>
       </c>
       <c r="C262" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D262" t="s">
         <v>17</v>
@@ -14606,7 +14612,7 @@
         <v>142</v>
       </c>
       <c r="C263" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D263" t="s">
         <v>17</v>
@@ -14659,7 +14665,7 @@
         <v>140</v>
       </c>
       <c r="C264" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D264" t="s">
         <v>17</v>
@@ -14715,7 +14721,7 @@
         <v>139</v>
       </c>
       <c r="C265" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D265" t="s">
         <v>17</v>
@@ -14771,7 +14777,7 @@
         <v>139</v>
       </c>
       <c r="C266" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D266" t="s">
         <v>17</v>
@@ -14827,7 +14833,7 @@
         <v>139</v>
       </c>
       <c r="C267" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D267" t="s">
         <v>17</v>
@@ -14880,7 +14886,7 @@
         <v>141</v>
       </c>
       <c r="C268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D268" t="s">
         <v>17</v>
@@ -14936,7 +14942,7 @@
         <v>139</v>
       </c>
       <c r="C269" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D269" t="s">
         <v>17</v>
@@ -14989,7 +14995,7 @@
         <v>145</v>
       </c>
       <c r="C270" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D270" t="s">
         <v>17</v>
@@ -15033,7 +15039,7 @@
         <v>145</v>
       </c>
       <c r="C271" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D271" t="s">
         <v>17</v>
@@ -15089,7 +15095,7 @@
         <v>143</v>
       </c>
       <c r="C272" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D272" t="s">
         <v>17</v>
@@ -15142,7 +15148,7 @@
         <v>144</v>
       </c>
       <c r="C273" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D273" t="s">
         <v>17</v>
@@ -15195,7 +15201,7 @@
         <v>140</v>
       </c>
       <c r="C274" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D274" t="s">
         <v>17</v>
@@ -15251,7 +15257,7 @@
         <v>143</v>
       </c>
       <c r="C275" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D275" t="s">
         <v>17</v>
@@ -15304,7 +15310,7 @@
         <v>141</v>
       </c>
       <c r="C276" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D276" t="s">
         <v>17</v>
@@ -15360,7 +15366,7 @@
         <v>142</v>
       </c>
       <c r="C277" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D277" t="s">
         <v>17</v>
@@ -15416,7 +15422,7 @@
         <v>142</v>
       </c>
       <c r="C278" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D278" t="s">
         <v>17</v>
@@ -15472,7 +15478,7 @@
         <v>143</v>
       </c>
       <c r="C279" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D279" t="s">
         <v>17</v>
@@ -15528,7 +15534,7 @@
         <v>146</v>
       </c>
       <c r="C280" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D280" t="s">
         <v>17</v>
@@ -15584,7 +15590,7 @@
         <v>140</v>
       </c>
       <c r="C281" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D281" t="s">
         <v>17</v>
@@ -15640,7 +15646,7 @@
         <v>142</v>
       </c>
       <c r="C282" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D282" t="s">
         <v>17</v>
@@ -15693,7 +15699,7 @@
         <v>138</v>
       </c>
       <c r="C283" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D283" t="s">
         <v>17</v>
@@ -15749,7 +15755,7 @@
         <v>137</v>
       </c>
       <c r="C284" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D284" t="s">
         <v>17</v>
@@ -15805,7 +15811,7 @@
         <v>141</v>
       </c>
       <c r="C285" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D285" t="s">
         <v>17</v>
@@ -15861,7 +15867,7 @@
         <v>141</v>
       </c>
       <c r="C286" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D286" t="s">
         <v>17</v>
@@ -15917,7 +15923,7 @@
         <v>146</v>
       </c>
       <c r="C287" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D287" t="s">
         <v>17</v>
@@ -15967,7 +15973,7 @@
         <v>138</v>
       </c>
       <c r="C288" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D288" t="s">
         <v>17</v>
@@ -16023,7 +16029,7 @@
         <v>143</v>
       </c>
       <c r="C289" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D289" t="s">
         <v>17</v>
@@ -16076,7 +16082,7 @@
         <v>143</v>
       </c>
       <c r="C290" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D290" t="s">
         <v>17</v>
@@ -16129,7 +16135,7 @@
         <v>137</v>
       </c>
       <c r="C291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D291" t="s">
         <v>17</v>
@@ -16185,7 +16191,7 @@
         <v>143</v>
       </c>
       <c r="C292" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D292" t="s">
         <v>17</v>
@@ -16241,7 +16247,7 @@
         <v>139</v>
       </c>
       <c r="C293" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D293" t="s">
         <v>17</v>
@@ -16297,7 +16303,7 @@
         <v>142</v>
       </c>
       <c r="C294" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D294" t="s">
         <v>17</v>
@@ -16353,7 +16359,7 @@
         <v>136</v>
       </c>
       <c r="C295" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D295" t="s">
         <v>17</v>
@@ -16409,7 +16415,7 @@
         <v>137</v>
       </c>
       <c r="C296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D296" t="s">
         <v>17</v>
@@ -16465,7 +16471,7 @@
         <v>142</v>
       </c>
       <c r="C297" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D297" t="s">
         <v>17</v>
@@ -16521,7 +16527,7 @@
         <v>140</v>
       </c>
       <c r="C298" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D298" t="s">
         <v>17</v>
@@ -16577,7 +16583,7 @@
         <v>137</v>
       </c>
       <c r="C299" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D299" t="s">
         <v>17</v>
@@ -16633,7 +16639,7 @@
         <v>140</v>
       </c>
       <c r="C300" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D300" t="s">
         <v>17</v>
@@ -16689,7 +16695,7 @@
         <v>146</v>
       </c>
       <c r="C301" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D301" t="s">
         <v>17</v>
@@ -16736,7 +16742,7 @@
         <v>144</v>
       </c>
       <c r="C302" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D302" t="s">
         <v>17</v>
@@ -16792,7 +16798,7 @@
         <v>138</v>
       </c>
       <c r="C303" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D303" t="s">
         <v>17</v>
@@ -16848,7 +16854,7 @@
         <v>141</v>
       </c>
       <c r="C304" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D304" t="s">
         <v>17</v>
@@ -16904,7 +16910,7 @@
         <v>140</v>
       </c>
       <c r="C305" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D305" t="s">
         <v>17</v>
@@ -16957,7 +16963,7 @@
         <v>143</v>
       </c>
       <c r="C306" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D306" t="s">
         <v>17</v>
@@ -17013,7 +17019,7 @@
         <v>140</v>
       </c>
       <c r="C307" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D307" t="s">
         <v>17</v>
@@ -17069,7 +17075,7 @@
         <v>143</v>
       </c>
       <c r="C308" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D308" t="s">
         <v>17</v>
@@ -17125,7 +17131,7 @@
         <v>142</v>
       </c>
       <c r="C309" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D309" t="s">
         <v>17</v>
@@ -17181,7 +17187,7 @@
         <v>139</v>
       </c>
       <c r="C310" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D310" t="s">
         <v>17</v>
@@ -17237,7 +17243,7 @@
         <v>136</v>
       </c>
       <c r="C311" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D311" t="s">
         <v>17</v>
@@ -17290,7 +17296,7 @@
         <v>137</v>
       </c>
       <c r="C312" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D312" t="s">
         <v>17</v>
@@ -17346,7 +17352,7 @@
         <v>148</v>
       </c>
       <c r="C313" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D313" t="s">
         <v>17</v>
@@ -17396,7 +17402,7 @@
         <v>142</v>
       </c>
       <c r="C314" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D314" t="s">
         <v>17</v>
@@ -17452,7 +17458,7 @@
         <v>144</v>
       </c>
       <c r="C315" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D315" t="s">
         <v>17</v>
@@ -17508,7 +17514,7 @@
         <v>141</v>
       </c>
       <c r="C316" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D316" t="s">
         <v>17</v>
@@ -17564,7 +17570,7 @@
         <v>145</v>
       </c>
       <c r="C317" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D317" t="s">
         <v>17</v>
@@ -17620,7 +17626,7 @@
         <v>139</v>
       </c>
       <c r="C318" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D318" t="s">
         <v>17</v>
@@ -17676,7 +17682,7 @@
         <v>141</v>
       </c>
       <c r="C319" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D319" t="s">
         <v>17</v>
@@ -17729,7 +17735,7 @@
         <v>141</v>
       </c>
       <c r="C320" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D320" t="s">
         <v>17</v>
@@ -17785,7 +17791,7 @@
         <v>136</v>
       </c>
       <c r="C321" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D321" t="s">
         <v>17</v>
@@ -17841,7 +17847,7 @@
         <v>141</v>
       </c>
       <c r="C322" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D322" t="s">
         <v>17</v>
@@ -17897,7 +17903,7 @@
         <v>144</v>
       </c>
       <c r="C323" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D323" t="s">
         <v>17</v>
@@ -17950,7 +17956,7 @@
         <v>150</v>
       </c>
       <c r="C324" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D324" t="s">
         <v>17</v>
@@ -18006,7 +18012,7 @@
         <v>143</v>
       </c>
       <c r="C325" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D325" t="s">
         <v>1</v>
@@ -18062,7 +18068,7 @@
         <v>137</v>
       </c>
       <c r="C326" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D326" t="s">
         <v>1</v>
@@ -18118,7 +18124,7 @@
         <v>139</v>
       </c>
       <c r="C327" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D327" t="s">
         <v>17</v>
@@ -18174,7 +18180,7 @@
         <v>141</v>
       </c>
       <c r="C328" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D328" t="s">
         <v>17</v>
@@ -18230,7 +18236,7 @@
         <v>146</v>
       </c>
       <c r="C329" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D329" t="s">
         <v>17</v>
@@ -18283,7 +18289,7 @@
         <v>140</v>
       </c>
       <c r="C330" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D330" t="s">
         <v>17</v>
@@ -18339,7 +18345,7 @@
         <v>147</v>
       </c>
       <c r="C331" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D331" t="s">
         <v>17</v>
@@ -18395,7 +18401,7 @@
         <v>142</v>
       </c>
       <c r="C332" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D332" t="s">
         <v>17</v>
@@ -18448,7 +18454,7 @@
         <v>152</v>
       </c>
       <c r="C333" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D333" t="s">
         <v>17</v>
@@ -18504,7 +18510,7 @@
         <v>145</v>
       </c>
       <c r="C334" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D334" t="s">
         <v>17</v>
@@ -18560,7 +18566,7 @@
         <v>139</v>
       </c>
       <c r="C335" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D335" t="s">
         <v>17</v>
@@ -18616,7 +18622,7 @@
         <v>140</v>
       </c>
       <c r="C336" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D336" t="s">
         <v>17</v>
@@ -18672,7 +18678,7 @@
         <v>138</v>
       </c>
       <c r="C337" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D337" t="s">
         <v>17</v>
@@ -18725,7 +18731,7 @@
         <v>143</v>
       </c>
       <c r="C338" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D338" t="s">
         <v>17</v>
@@ -18781,7 +18787,7 @@
         <v>150</v>
       </c>
       <c r="C339" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D339" t="s">
         <v>17</v>
@@ -18837,7 +18843,7 @@
         <v>137</v>
       </c>
       <c r="C340" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D340" t="s">
         <v>17</v>
@@ -18893,7 +18899,7 @@
         <v>140</v>
       </c>
       <c r="C341" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D341" t="s">
         <v>17</v>
@@ -18949,7 +18955,7 @@
         <v>143</v>
       </c>
       <c r="C342" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D342" t="s">
         <v>17</v>
@@ -19005,7 +19011,7 @@
         <v>141</v>
       </c>
       <c r="C343" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D343" t="s">
         <v>17</v>
@@ -19061,7 +19067,7 @@
         <v>148</v>
       </c>
       <c r="C344" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D344" t="s">
         <v>17</v>
@@ -19117,7 +19123,7 @@
         <v>144</v>
       </c>
       <c r="C345" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D345" t="s">
         <v>17</v>
@@ -19173,7 +19179,7 @@
         <v>137</v>
       </c>
       <c r="C346" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D346" t="s">
         <v>17</v>
@@ -19229,7 +19235,7 @@
         <v>144</v>
       </c>
       <c r="C347" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D347" t="s">
         <v>17</v>
@@ -19285,7 +19291,7 @@
         <v>148</v>
       </c>
       <c r="C348" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D348" t="s">
         <v>17</v>
@@ -19341,7 +19347,7 @@
         <v>141</v>
       </c>
       <c r="C349" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D349" t="s">
         <v>17</v>
@@ -19397,7 +19403,7 @@
         <v>136</v>
       </c>
       <c r="C350" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D350" t="s">
         <v>17</v>
@@ -19453,7 +19459,7 @@
         <v>144</v>
       </c>
       <c r="C351" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D351" t="s">
         <v>17</v>
@@ -19509,7 +19515,7 @@
         <v>144</v>
       </c>
       <c r="C352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D352" t="s">
         <v>17</v>
@@ -19565,7 +19571,7 @@
         <v>138</v>
       </c>
       <c r="C353" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D353" t="s">
         <v>17</v>
@@ -19612,7 +19618,7 @@
         <v>142</v>
       </c>
       <c r="C354" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D354" t="s">
         <v>17</v>
@@ -19668,7 +19674,7 @@
         <v>145</v>
       </c>
       <c r="C355" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D355" t="s">
         <v>17</v>
@@ -19724,7 +19730,7 @@
         <v>158</v>
       </c>
       <c r="C356" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D356" t="s">
         <v>1</v>
@@ -19777,7 +19783,7 @@
         <v>144</v>
       </c>
       <c r="C357" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D357" t="s">
         <v>17</v>
@@ -19833,7 +19839,7 @@
         <v>141</v>
       </c>
       <c r="C358" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D358" t="s">
         <v>17</v>
@@ -19886,7 +19892,7 @@
         <v>142</v>
       </c>
       <c r="C359" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D359" t="s">
         <v>17</v>
@@ -19939,7 +19945,7 @@
         <v>146</v>
       </c>
       <c r="C360" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D360" t="s">
         <v>17</v>
@@ -19995,7 +20001,7 @@
         <v>139</v>
       </c>
       <c r="C361" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D361" t="s">
         <v>17</v>
@@ -20048,7 +20054,7 @@
         <v>145</v>
       </c>
       <c r="C362" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D362" t="s">
         <v>17</v>
@@ -20104,7 +20110,7 @@
         <v>141</v>
       </c>
       <c r="C363" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D363" t="s">
         <v>17</v>
@@ -20151,7 +20157,7 @@
         <v>141</v>
       </c>
       <c r="C364" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D364" t="s">
         <v>17</v>
@@ -20207,7 +20213,7 @@
         <v>137</v>
       </c>
       <c r="C365" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D365" t="s">
         <v>17</v>
@@ -20263,7 +20269,7 @@
         <v>144</v>
       </c>
       <c r="C366" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D366" t="s">
         <v>17</v>
@@ -20319,7 +20325,7 @@
         <v>139</v>
       </c>
       <c r="C367" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D367" t="s">
         <v>17</v>
@@ -20372,7 +20378,7 @@
         <v>138</v>
       </c>
       <c r="C368" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D368" t="s">
         <v>17</v>
@@ -20428,7 +20434,7 @@
         <v>141</v>
       </c>
       <c r="C369" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D369" t="s">
         <v>17</v>
@@ -20484,7 +20490,7 @@
         <v>142</v>
       </c>
       <c r="C370" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D370" t="s">
         <v>17</v>
@@ -20540,7 +20546,7 @@
         <v>144</v>
       </c>
       <c r="C371" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D371" t="s">
         <v>17</v>
@@ -20596,7 +20602,7 @@
         <v>142</v>
       </c>
       <c r="C372" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D372" t="s">
         <v>17</v>
@@ -20652,7 +20658,7 @@
         <v>140</v>
       </c>
       <c r="C373" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D373" t="s">
         <v>17</v>
@@ -20708,7 +20714,7 @@
         <v>144</v>
       </c>
       <c r="C374" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D374" t="s">
         <v>17</v>
@@ -20764,7 +20770,7 @@
         <v>144</v>
       </c>
       <c r="C375" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D375" t="s">
         <v>17</v>
@@ -20820,7 +20826,7 @@
         <v>139</v>
       </c>
       <c r="C376" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D376" t="s">
         <v>17</v>
@@ -20876,7 +20882,7 @@
         <v>147</v>
       </c>
       <c r="C377" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D377" t="s">
         <v>17</v>
@@ -20932,7 +20938,7 @@
         <v>142</v>
       </c>
       <c r="C378" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D378" t="s">
         <v>17</v>
@@ -20988,7 +20994,7 @@
         <v>144</v>
       </c>
       <c r="C379" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D379" t="s">
         <v>17</v>
@@ -21044,7 +21050,7 @@
         <v>144</v>
       </c>
       <c r="C380" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D380" t="s">
         <v>17</v>
@@ -21100,7 +21106,7 @@
         <v>139</v>
       </c>
       <c r="C381" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D381" t="s">
         <v>17</v>
@@ -21156,7 +21162,7 @@
         <v>138</v>
       </c>
       <c r="C382" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D382" t="s">
         <v>17</v>
@@ -21212,7 +21218,7 @@
         <v>146</v>
       </c>
       <c r="C383" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D383" t="s">
         <v>17</v>
@@ -21268,7 +21274,7 @@
         <v>139</v>
       </c>
       <c r="C384" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D384" t="s">
         <v>17</v>
@@ -21303,7 +21309,7 @@
         <v>139</v>
       </c>
       <c r="C385" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D385" t="s">
         <v>17</v>
@@ -21359,7 +21365,7 @@
         <v>140</v>
       </c>
       <c r="C386" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D386" t="s">
         <v>17</v>
@@ -21415,7 +21421,7 @@
         <v>146</v>
       </c>
       <c r="C387" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D387" t="s">
         <v>17</v>
@@ -21471,7 +21477,7 @@
         <v>149</v>
       </c>
       <c r="C388" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D388" t="s">
         <v>17</v>
@@ -21527,7 +21533,7 @@
         <v>137</v>
       </c>
       <c r="C389" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D389" t="s">
         <v>17</v>
@@ -21583,7 +21589,7 @@
         <v>145</v>
       </c>
       <c r="C390" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D390" t="s">
         <v>17</v>
@@ -21639,7 +21645,7 @@
         <v>142</v>
       </c>
       <c r="C391" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D391" t="s">
         <v>17</v>
@@ -21677,7 +21683,7 @@
         <v>145</v>
       </c>
       <c r="C392" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D392" t="s">
         <v>17</v>
@@ -21733,7 +21739,7 @@
         <v>141</v>
       </c>
       <c r="C393" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D393" t="s">
         <v>17</v>
@@ -21789,7 +21795,7 @@
         <v>138</v>
       </c>
       <c r="C394" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D394" t="s">
         <v>17</v>
@@ -21845,7 +21851,7 @@
         <v>142</v>
       </c>
       <c r="C395" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D395" t="s">
         <v>17</v>
@@ -21898,7 +21904,7 @@
         <v>147</v>
       </c>
       <c r="C396" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D396" t="s">
         <v>17</v>
@@ -21954,7 +21960,7 @@
         <v>143</v>
       </c>
       <c r="C397" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D397" t="s">
         <v>17</v>
@@ -22010,7 +22016,7 @@
         <v>138</v>
       </c>
       <c r="C398" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D398" t="s">
         <v>17</v>
@@ -22066,7 +22072,7 @@
         <v>143</v>
       </c>
       <c r="C399" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D399" t="s">
         <v>17</v>
@@ -22122,7 +22128,7 @@
         <v>138</v>
       </c>
       <c r="C400" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D400" t="s">
         <v>17</v>
@@ -22178,7 +22184,7 @@
         <v>143</v>
       </c>
       <c r="C401" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D401" t="s">
         <v>17</v>
@@ -22234,7 +22240,7 @@
         <v>139</v>
       </c>
       <c r="C402" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D402" t="s">
         <v>17</v>
@@ -22290,7 +22296,7 @@
         <v>139</v>
       </c>
       <c r="C403" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D403" t="s">
         <v>17</v>
@@ -22346,7 +22352,7 @@
         <v>144</v>
       </c>
       <c r="C404" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D404" t="s">
         <v>17</v>
@@ -22402,7 +22408,7 @@
         <v>145</v>
       </c>
       <c r="C405" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D405" t="s">
         <v>17</v>
@@ -22458,7 +22464,7 @@
         <v>139</v>
       </c>
       <c r="C406" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D406" t="s">
         <v>17</v>
@@ -22514,7 +22520,7 @@
         <v>136</v>
       </c>
       <c r="C407" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D407" t="s">
         <v>17</v>
@@ -22567,7 +22573,7 @@
         <v>141</v>
       </c>
       <c r="C408" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D408" t="s">
         <v>17</v>
@@ -22623,7 +22629,7 @@
         <v>142</v>
       </c>
       <c r="C409" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D409" t="s">
         <v>17</v>
@@ -22679,7 +22685,7 @@
         <v>139</v>
       </c>
       <c r="C410" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D410" t="s">
         <v>17</v>
@@ -22732,7 +22738,7 @@
         <v>141</v>
       </c>
       <c r="C411" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D411" t="s">
         <v>17</v>
@@ -22788,7 +22794,7 @@
         <v>148</v>
       </c>
       <c r="C412" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D412" t="s">
         <v>17</v>
@@ -22841,7 +22847,7 @@
         <v>144</v>
       </c>
       <c r="C413" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D413" t="s">
         <v>17</v>
@@ -22894,7 +22900,7 @@
         <v>139</v>
       </c>
       <c r="C414" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D414" t="s">
         <v>17</v>
@@ -22950,7 +22956,7 @@
         <v>143</v>
       </c>
       <c r="C415" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D415" t="s">
         <v>17</v>
@@ -23006,7 +23012,7 @@
         <v>141</v>
       </c>
       <c r="C416" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D416" t="s">
         <v>17</v>
@@ -23062,7 +23068,7 @@
         <v>140</v>
       </c>
       <c r="C417" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D417" t="s">
         <v>17</v>
@@ -23118,7 +23124,7 @@
         <v>144</v>
       </c>
       <c r="C418" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D418" t="s">
         <v>17</v>
@@ -23174,7 +23180,7 @@
         <v>139</v>
       </c>
       <c r="C419" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D419" t="s">
         <v>17</v>
@@ -23230,7 +23236,7 @@
         <v>140</v>
       </c>
       <c r="C420" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D420" t="s">
         <v>17</v>
@@ -23286,7 +23292,7 @@
         <v>139</v>
       </c>
       <c r="C421" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D421" t="s">
         <v>17</v>
@@ -23342,7 +23348,7 @@
         <v>155</v>
       </c>
       <c r="C422" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D422" t="s">
         <v>17</v>
@@ -23398,7 +23404,7 @@
         <v>140</v>
       </c>
       <c r="C423" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D423" t="s">
         <v>17</v>
@@ -23454,7 +23460,7 @@
         <v>136</v>
       </c>
       <c r="C424" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D424" t="s">
         <v>17</v>
@@ -23507,7 +23513,7 @@
         <v>139</v>
       </c>
       <c r="C425" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D425" t="s">
         <v>17</v>
@@ -23563,7 +23569,7 @@
         <v>138</v>
       </c>
       <c r="C426" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D426" t="s">
         <v>17</v>
@@ -23619,7 +23625,7 @@
         <v>143</v>
       </c>
       <c r="C427" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D427" t="s">
         <v>17</v>
@@ -23672,7 +23678,7 @@
         <v>132</v>
       </c>
       <c r="C428" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D428" t="s">
         <v>17</v>
@@ -23710,7 +23716,7 @@
         <v>134</v>
       </c>
       <c r="C429" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D429" t="s">
         <v>1</v>
@@ -23751,7 +23757,7 @@
         <v>134</v>
       </c>
       <c r="C430" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D430" t="s">
         <v>17</v>
@@ -23798,7 +23804,7 @@
         <v>134</v>
       </c>
       <c r="C431" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D431" t="s">
         <v>1</v>
@@ -23854,7 +23860,7 @@
         <v>133</v>
       </c>
       <c r="C432" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D432" t="s">
         <v>1</v>
@@ -23910,7 +23916,7 @@
         <v>132</v>
       </c>
       <c r="C433" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D433" t="s">
         <v>1</v>
@@ -23966,7 +23972,7 @@
         <v>134</v>
       </c>
       <c r="C434" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D434" t="s">
         <v>1</v>
@@ -24022,7 +24028,7 @@
         <v>134</v>
       </c>
       <c r="C435" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D435" t="s">
         <v>1</v>
@@ -24069,7 +24075,7 @@
         <v>135</v>
       </c>
       <c r="C436" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D436" t="s">
         <v>1</v>
@@ -24125,7 +24131,7 @@
         <v>134</v>
       </c>
       <c r="C437" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D437" t="s">
         <v>1</v>
@@ -24178,7 +24184,7 @@
         <v>134</v>
       </c>
       <c r="C438" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D438" t="s">
         <v>1</v>
@@ -24231,7 +24237,7 @@
         <v>135</v>
       </c>
       <c r="C439" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D439" t="s">
         <v>1</v>
@@ -24287,7 +24293,7 @@
         <v>133</v>
       </c>
       <c r="C440" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D440" t="s">
         <v>1</v>
@@ -24343,7 +24349,7 @@
         <v>131</v>
       </c>
       <c r="C441" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D441" t="s">
         <v>1</v>
@@ -24399,7 +24405,7 @@
         <v>130</v>
       </c>
       <c r="C442" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D442" t="s">
         <v>1</v>
@@ -24455,7 +24461,7 @@
         <v>128</v>
       </c>
       <c r="C443" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D443" t="s">
         <v>1</v>
@@ -24508,7 +24514,7 @@
         <v>134</v>
       </c>
       <c r="C444" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D444" t="s">
         <v>1</v>
@@ -24564,7 +24570,7 @@
         <v>131</v>
       </c>
       <c r="C445" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D445" t="s">
         <v>1</v>
@@ -24620,7 +24626,7 @@
         <v>114</v>
       </c>
       <c r="C446" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D446" t="s">
         <v>1</v>
@@ -24676,7 +24682,7 @@
         <v>133</v>
       </c>
       <c r="C447" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D447" t="s">
         <v>1</v>
@@ -24732,7 +24738,7 @@
         <v>131</v>
       </c>
       <c r="C448" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D448" t="s">
         <v>1</v>
@@ -24788,7 +24794,7 @@
         <v>125</v>
       </c>
       <c r="C449" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D449" t="s">
         <v>1</v>
@@ -24844,7 +24850,7 @@
         <v>132</v>
       </c>
       <c r="C450" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D450" t="s">
         <v>1</v>
@@ -24900,7 +24906,7 @@
         <v>133</v>
       </c>
       <c r="C451" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D451" t="s">
         <v>1</v>
@@ -24956,7 +24962,7 @@
         <v>135</v>
       </c>
       <c r="C452" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D452" t="s">
         <v>1</v>
@@ -25012,7 +25018,7 @@
         <v>133</v>
       </c>
       <c r="C453" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D453" t="s">
         <v>1</v>
@@ -25065,7 +25071,7 @@
         <v>133</v>
       </c>
       <c r="C454" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D454" t="s">
         <v>1</v>
@@ -25121,7 +25127,7 @@
         <v>131</v>
       </c>
       <c r="C455" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D455" t="s">
         <v>1</v>
@@ -25177,7 +25183,7 @@
         <v>135</v>
       </c>
       <c r="C456" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D456" t="s">
         <v>1</v>
@@ -25233,7 +25239,7 @@
         <v>135</v>
       </c>
       <c r="C457" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D457" t="s">
         <v>17</v>
@@ -25289,7 +25295,7 @@
         <v>135</v>
       </c>
       <c r="C458" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D458" t="s">
         <v>1</v>
@@ -25342,7 +25348,7 @@
         <v>118</v>
       </c>
       <c r="C459" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D459" t="s">
         <v>17</v>
@@ -25398,7 +25404,7 @@
         <v>133</v>
       </c>
       <c r="C460" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D460" t="s">
         <v>1</v>
@@ -25454,7 +25460,7 @@
         <v>134</v>
       </c>
       <c r="C461" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D461" t="s">
         <v>1</v>
@@ -25510,7 +25516,7 @@
         <v>135</v>
       </c>
       <c r="C462" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D462" t="s">
         <v>1</v>
@@ -25563,7 +25569,7 @@
         <v>133</v>
       </c>
       <c r="C463" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D463" t="s">
         <v>1</v>
@@ -25619,7 +25625,7 @@
         <v>135</v>
       </c>
       <c r="C464" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D464" t="s">
         <v>1</v>
@@ -25675,7 +25681,7 @@
         <v>133</v>
       </c>
       <c r="C465" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D465" t="s">
         <v>17</v>
@@ -25731,7 +25737,7 @@
         <v>133</v>
       </c>
       <c r="C466" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D466" t="s">
         <v>17</v>
@@ -25784,7 +25790,7 @@
         <v>130</v>
       </c>
       <c r="C467" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D467" t="s">
         <v>1</v>
@@ -25840,7 +25846,7 @@
         <v>135</v>
       </c>
       <c r="C468" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D468" t="s">
         <v>1</v>
@@ -25878,7 +25884,7 @@
         <v>134</v>
       </c>
       <c r="C469" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D469" t="s">
         <v>17</v>
@@ -25934,7 +25940,7 @@
         <v>134</v>
       </c>
       <c r="C470" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D470" t="s">
         <v>17</v>
@@ -25990,7 +25996,7 @@
         <v>135</v>
       </c>
       <c r="C471" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D471" t="s">
         <v>1</v>
@@ -26046,7 +26052,7 @@
         <v>135</v>
       </c>
       <c r="C472" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D472" t="s">
         <v>17</v>
@@ -26102,7 +26108,7 @@
         <v>128</v>
       </c>
       <c r="C473" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D473" t="s">
         <v>17</v>
@@ -26158,7 +26164,7 @@
         <v>134</v>
       </c>
       <c r="C474" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D474" t="s">
         <v>17</v>
@@ -26211,7 +26217,7 @@
         <v>135</v>
       </c>
       <c r="C475" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D475" t="s">
         <v>17</v>
@@ -26267,7 +26273,7 @@
         <v>119</v>
       </c>
       <c r="C476" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D476" t="s">
         <v>1</v>
@@ -26323,7 +26329,7 @@
         <v>135</v>
       </c>
       <c r="C477" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D477" t="s">
         <v>17</v>
@@ -26379,7 +26385,7 @@
         <v>135</v>
       </c>
       <c r="C478" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D478" t="s">
         <v>17</v>
@@ -26435,7 +26441,7 @@
         <v>135</v>
       </c>
       <c r="C479" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D479" t="s">
         <v>17</v>
@@ -26488,7 +26494,7 @@
         <v>132</v>
       </c>
       <c r="C480" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D480" t="s">
         <v>17</v>
@@ -26544,7 +26550,7 @@
         <v>135</v>
       </c>
       <c r="C481" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D481" t="s">
         <v>17</v>
@@ -26600,7 +26606,7 @@
         <v>131</v>
       </c>
       <c r="C482" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D482" t="s">
         <v>17</v>
@@ -26656,7 +26662,7 @@
         <v>134</v>
       </c>
       <c r="C483" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D483" t="s">
         <v>17</v>
@@ -26712,7 +26718,7 @@
         <v>130</v>
       </c>
       <c r="C484" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D484" t="s">
         <v>17</v>
@@ -26768,7 +26774,7 @@
         <v>133</v>
       </c>
       <c r="C485" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D485" t="s">
         <v>17</v>
@@ -26824,7 +26830,7 @@
         <v>128</v>
       </c>
       <c r="C486" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D486" t="s">
         <v>17</v>
@@ -26880,7 +26886,7 @@
         <v>133</v>
       </c>
       <c r="C487" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D487" t="s">
         <v>17</v>
@@ -26936,7 +26942,7 @@
         <v>131</v>
       </c>
       <c r="C488" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D488" t="s">
         <v>17</v>
@@ -26992,7 +26998,7 @@
         <v>135</v>
       </c>
       <c r="C489" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D489" t="s">
         <v>17</v>

--- a/downloads/data/marathon.xlsx
+++ b/downloads/data/marathon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>urit3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &gt; 135</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;= 135</t>
   </si>
   <si>
     <t>na</t>
@@ -440,7 +434,7 @@
   <dimension ref="A1:R489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -508,8 +502,8 @@
       <c r="B2">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -546,8 +540,8 @@
       <c r="B3">
         <v>142</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -584,8 +578,8 @@
       <c r="B4">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -616,8 +610,8 @@
       <c r="B5">
         <v>139</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -657,8 +651,8 @@
       <c r="B6">
         <v>145</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -695,8 +689,8 @@
       <c r="B7">
         <v>140</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -736,8 +730,8 @@
       <c r="B8">
         <v>142</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -777,8 +771,8 @@
       <c r="B9">
         <v>140</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -818,8 +812,8 @@
       <c r="B10">
         <v>141</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -859,8 +853,8 @@
       <c r="B11">
         <v>138</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -900,8 +894,8 @@
       <c r="B12">
         <v>141</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -941,8 +935,8 @@
       <c r="B13">
         <v>143</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -982,8 +976,8 @@
       <c r="B14">
         <v>141</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1023,8 +1017,8 @@
       <c r="B15">
         <v>141</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -1064,8 +1058,8 @@
       <c r="B16">
         <v>140</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1105,8 +1099,8 @@
       <c r="B17">
         <v>142</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1146,8 +1140,8 @@
       <c r="B18">
         <v>143</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1184,8 +1178,8 @@
       <c r="B19">
         <v>149</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -1237,8 +1231,8 @@
       <c r="B20">
         <v>142</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -1290,8 +1284,8 @@
       <c r="B21">
         <v>141</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -1346,8 +1340,8 @@
       <c r="B22">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -1402,8 +1396,8 @@
       <c r="B23">
         <v>140</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -1458,8 +1452,8 @@
       <c r="B24">
         <v>142</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -1514,8 +1508,8 @@
       <c r="B25">
         <v>149</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -1570,8 +1564,8 @@
       <c r="B26">
         <v>140</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -1623,8 +1617,8 @@
       <c r="B27">
         <v>147</v>
       </c>
-      <c r="C27" t="s">
-        <v>29</v>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -1679,8 +1673,8 @@
       <c r="B28">
         <v>136</v>
       </c>
-      <c r="C28" t="s">
-        <v>29</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -1735,8 +1729,8 @@
       <c r="B29">
         <v>139</v>
       </c>
-      <c r="C29" t="s">
-        <v>29</v>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -1791,8 +1785,8 @@
       <c r="B30">
         <v>143</v>
       </c>
-      <c r="C30" t="s">
-        <v>29</v>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -1847,8 +1841,8 @@
       <c r="B31">
         <v>142</v>
       </c>
-      <c r="C31" t="s">
-        <v>29</v>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -1903,8 +1897,8 @@
       <c r="B32">
         <v>143</v>
       </c>
-      <c r="C32" t="s">
-        <v>29</v>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -1956,8 +1950,8 @@
       <c r="B33">
         <v>140</v>
       </c>
-      <c r="C33" t="s">
-        <v>29</v>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -2012,8 +2006,8 @@
       <c r="B34">
         <v>142</v>
       </c>
-      <c r="C34" t="s">
-        <v>29</v>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -2068,8 +2062,8 @@
       <c r="B35">
         <v>136</v>
       </c>
-      <c r="C35" t="s">
-        <v>29</v>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -2124,8 +2118,8 @@
       <c r="B36">
         <v>147</v>
       </c>
-      <c r="C36" t="s">
-        <v>29</v>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -2180,8 +2174,8 @@
       <c r="B37">
         <v>139</v>
       </c>
-      <c r="C37" t="s">
-        <v>29</v>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -2236,8 +2230,8 @@
       <c r="B38">
         <v>139</v>
       </c>
-      <c r="C38" t="s">
-        <v>29</v>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -2292,8 +2286,8 @@
       <c r="B39">
         <v>144</v>
       </c>
-      <c r="C39" t="s">
-        <v>29</v>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -2348,8 +2342,8 @@
       <c r="B40">
         <v>141</v>
       </c>
-      <c r="C40" t="s">
-        <v>29</v>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -2404,8 +2398,8 @@
       <c r="B41">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>29</v>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -2460,8 +2454,8 @@
       <c r="B42">
         <v>142</v>
       </c>
-      <c r="C42" t="s">
-        <v>29</v>
+      <c r="C42">
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -2516,8 +2510,8 @@
       <c r="B43">
         <v>136</v>
       </c>
-      <c r="C43" t="s">
-        <v>29</v>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -2572,8 +2566,8 @@
       <c r="B44">
         <v>142</v>
       </c>
-      <c r="C44" t="s">
-        <v>29</v>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -2628,8 +2622,8 @@
       <c r="B45">
         <v>137</v>
       </c>
-      <c r="C45" t="s">
-        <v>29</v>
+      <c r="C45">
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -2684,8 +2678,8 @@
       <c r="B46">
         <v>138</v>
       </c>
-      <c r="C46" t="s">
-        <v>29</v>
+      <c r="C46">
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -2740,8 +2734,8 @@
       <c r="B47">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
-        <v>29</v>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -2796,8 +2790,8 @@
       <c r="B48">
         <v>141</v>
       </c>
-      <c r="C48" t="s">
-        <v>29</v>
+      <c r="C48">
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -2852,8 +2846,8 @@
       <c r="B49">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
-        <v>29</v>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
@@ -2908,8 +2902,8 @@
       <c r="B50">
         <v>143</v>
       </c>
-      <c r="C50" t="s">
-        <v>29</v>
+      <c r="C50">
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
@@ -2964,8 +2958,8 @@
       <c r="B51">
         <v>138</v>
       </c>
-      <c r="C51" t="s">
-        <v>29</v>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -3020,8 +3014,8 @@
       <c r="B52">
         <v>140</v>
       </c>
-      <c r="C52" t="s">
-        <v>29</v>
+      <c r="C52">
+        <v>0</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -3076,8 +3070,8 @@
       <c r="B53">
         <v>142</v>
       </c>
-      <c r="C53" t="s">
-        <v>29</v>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -3132,8 +3126,8 @@
       <c r="B54">
         <v>137</v>
       </c>
-      <c r="C54" t="s">
-        <v>29</v>
+      <c r="C54">
+        <v>0</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -3185,8 +3179,8 @@
       <c r="B55">
         <v>139</v>
       </c>
-      <c r="C55" t="s">
-        <v>29</v>
+      <c r="C55">
+        <v>0</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -3241,8 +3235,8 @@
       <c r="B56">
         <v>144</v>
       </c>
-      <c r="C56" t="s">
-        <v>29</v>
+      <c r="C56">
+        <v>0</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -3294,8 +3288,8 @@
       <c r="B57">
         <v>143</v>
       </c>
-      <c r="C57" t="s">
-        <v>29</v>
+      <c r="C57">
+        <v>0</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -3350,8 +3344,8 @@
       <c r="B58">
         <v>139</v>
       </c>
-      <c r="C58" t="s">
-        <v>29</v>
+      <c r="C58">
+        <v>0</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -3406,8 +3400,8 @@
       <c r="B59">
         <v>137</v>
       </c>
-      <c r="C59" t="s">
-        <v>29</v>
+      <c r="C59">
+        <v>0</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -3459,8 +3453,8 @@
       <c r="B60">
         <v>144</v>
       </c>
-      <c r="C60" t="s">
-        <v>29</v>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -3515,8 +3509,8 @@
       <c r="B61">
         <v>142</v>
       </c>
-      <c r="C61" t="s">
-        <v>29</v>
+      <c r="C61">
+        <v>0</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -3556,8 +3550,8 @@
       <c r="B62">
         <v>144</v>
       </c>
-      <c r="C62" t="s">
-        <v>29</v>
+      <c r="C62">
+        <v>0</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -3612,8 +3606,8 @@
       <c r="B63">
         <v>145</v>
       </c>
-      <c r="C63" t="s">
-        <v>29</v>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -3668,8 +3662,8 @@
       <c r="B64">
         <v>137</v>
       </c>
-      <c r="C64" t="s">
-        <v>29</v>
+      <c r="C64">
+        <v>0</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -3724,8 +3718,8 @@
       <c r="B65">
         <v>143</v>
       </c>
-      <c r="C65" t="s">
-        <v>29</v>
+      <c r="C65">
+        <v>0</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -3780,8 +3774,8 @@
       <c r="B66">
         <v>141</v>
       </c>
-      <c r="C66" t="s">
-        <v>29</v>
+      <c r="C66">
+        <v>0</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -3833,8 +3827,8 @@
       <c r="B67">
         <v>138</v>
       </c>
-      <c r="C67" t="s">
-        <v>29</v>
+      <c r="C67">
+        <v>0</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -3889,8 +3883,8 @@
       <c r="B68">
         <v>140</v>
       </c>
-      <c r="C68" t="s">
-        <v>29</v>
+      <c r="C68">
+        <v>0</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -3945,8 +3939,8 @@
       <c r="B69">
         <v>140</v>
       </c>
-      <c r="C69" t="s">
-        <v>29</v>
+      <c r="C69">
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -4001,8 +3995,8 @@
       <c r="B70">
         <v>137</v>
       </c>
-      <c r="C70" t="s">
-        <v>29</v>
+      <c r="C70">
+        <v>0</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -4057,8 +4051,8 @@
       <c r="B71">
         <v>143</v>
       </c>
-      <c r="C71" t="s">
-        <v>29</v>
+      <c r="C71">
+        <v>0</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -4113,8 +4107,8 @@
       <c r="B72">
         <v>144</v>
       </c>
-      <c r="C72" t="s">
-        <v>29</v>
+      <c r="C72">
+        <v>0</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -4169,8 +4163,8 @@
       <c r="B73">
         <v>138</v>
       </c>
-      <c r="C73" t="s">
-        <v>29</v>
+      <c r="C73">
+        <v>0</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -4222,8 +4216,8 @@
       <c r="B74">
         <v>139</v>
       </c>
-      <c r="C74" t="s">
-        <v>29</v>
+      <c r="C74">
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -4275,8 +4269,8 @@
       <c r="B75">
         <v>144</v>
       </c>
-      <c r="C75" t="s">
-        <v>29</v>
+      <c r="C75">
+        <v>0</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -4331,8 +4325,8 @@
       <c r="B76">
         <v>144</v>
       </c>
-      <c r="C76" t="s">
-        <v>29</v>
+      <c r="C76">
+        <v>0</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -4387,8 +4381,8 @@
       <c r="B77">
         <v>140</v>
       </c>
-      <c r="C77" t="s">
-        <v>29</v>
+      <c r="C77">
+        <v>0</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -4440,8 +4434,8 @@
       <c r="B78">
         <v>137</v>
       </c>
-      <c r="C78" t="s">
-        <v>29</v>
+      <c r="C78">
+        <v>0</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -4496,8 +4490,8 @@
       <c r="B79">
         <v>140</v>
       </c>
-      <c r="C79" t="s">
-        <v>29</v>
+      <c r="C79">
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
@@ -4552,8 +4546,8 @@
       <c r="B80">
         <v>140</v>
       </c>
-      <c r="C80" t="s">
-        <v>29</v>
+      <c r="C80">
+        <v>0</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -4599,8 +4593,8 @@
       <c r="B81">
         <v>137</v>
       </c>
-      <c r="C81" t="s">
-        <v>29</v>
+      <c r="C81">
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -4655,8 +4649,8 @@
       <c r="B82">
         <v>136</v>
       </c>
-      <c r="C82" t="s">
-        <v>29</v>
+      <c r="C82">
+        <v>0</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -4711,8 +4705,8 @@
       <c r="B83">
         <v>140</v>
       </c>
-      <c r="C83" t="s">
-        <v>29</v>
+      <c r="C83">
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -4767,8 +4761,8 @@
       <c r="B84">
         <v>147</v>
       </c>
-      <c r="C84" t="s">
-        <v>29</v>
+      <c r="C84">
+        <v>0</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -4820,8 +4814,8 @@
       <c r="B85">
         <v>143</v>
       </c>
-      <c r="C85" t="s">
-        <v>29</v>
+      <c r="C85">
+        <v>0</v>
       </c>
       <c r="D85" t="s">
         <v>17</v>
@@ -4876,8 +4870,8 @@
       <c r="B86">
         <v>146</v>
       </c>
-      <c r="C86" t="s">
-        <v>29</v>
+      <c r="C86">
+        <v>0</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -4932,8 +4926,8 @@
       <c r="B87">
         <v>140</v>
       </c>
-      <c r="C87" t="s">
-        <v>29</v>
+      <c r="C87">
+        <v>0</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
@@ -4982,8 +4976,8 @@
       <c r="B88">
         <v>145</v>
       </c>
-      <c r="C88" t="s">
-        <v>29</v>
+      <c r="C88">
+        <v>0</v>
       </c>
       <c r="D88" t="s">
         <v>1</v>
@@ -5038,8 +5032,8 @@
       <c r="B89">
         <v>150</v>
       </c>
-      <c r="C89" t="s">
-        <v>29</v>
+      <c r="C89">
+        <v>0</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
@@ -5091,8 +5085,8 @@
       <c r="B90">
         <v>139</v>
       </c>
-      <c r="C90" t="s">
-        <v>29</v>
+      <c r="C90">
+        <v>0</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
@@ -5147,8 +5141,8 @@
       <c r="B91">
         <v>140</v>
       </c>
-      <c r="C91" t="s">
-        <v>29</v>
+      <c r="C91">
+        <v>0</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
@@ -5203,8 +5197,8 @@
       <c r="B92">
         <v>143</v>
       </c>
-      <c r="C92" t="s">
-        <v>29</v>
+      <c r="C92">
+        <v>0</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
@@ -5259,8 +5253,8 @@
       <c r="B93">
         <v>142</v>
       </c>
-      <c r="C93" t="s">
-        <v>29</v>
+      <c r="C93">
+        <v>0</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -5315,8 +5309,8 @@
       <c r="B94">
         <v>143</v>
       </c>
-      <c r="C94" t="s">
-        <v>29</v>
+      <c r="C94">
+        <v>0</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -5371,8 +5365,8 @@
       <c r="B95">
         <v>137</v>
       </c>
-      <c r="C95" t="s">
-        <v>29</v>
+      <c r="C95">
+        <v>0</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -5427,8 +5421,8 @@
       <c r="B96">
         <v>137</v>
       </c>
-      <c r="C96" t="s">
-        <v>29</v>
+      <c r="C96">
+        <v>0</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -5483,8 +5477,8 @@
       <c r="B97">
         <v>144</v>
       </c>
-      <c r="C97" t="s">
-        <v>29</v>
+      <c r="C97">
+        <v>0</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -5539,8 +5533,8 @@
       <c r="B98">
         <v>141</v>
       </c>
-      <c r="C98" t="s">
-        <v>29</v>
+      <c r="C98">
+        <v>0</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
@@ -5595,8 +5589,8 @@
       <c r="B99">
         <v>139</v>
       </c>
-      <c r="C99" t="s">
-        <v>29</v>
+      <c r="C99">
+        <v>0</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -5645,8 +5639,8 @@
       <c r="B100">
         <v>138</v>
       </c>
-      <c r="C100" t="s">
-        <v>29</v>
+      <c r="C100">
+        <v>0</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -5701,8 +5695,8 @@
       <c r="B101">
         <v>140</v>
       </c>
-      <c r="C101" t="s">
-        <v>29</v>
+      <c r="C101">
+        <v>0</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -5757,8 +5751,8 @@
       <c r="B102">
         <v>143</v>
       </c>
-      <c r="C102" t="s">
-        <v>29</v>
+      <c r="C102">
+        <v>0</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
@@ -5807,8 +5801,8 @@
       <c r="B103">
         <v>136</v>
       </c>
-      <c r="C103" t="s">
-        <v>29</v>
+      <c r="C103">
+        <v>0</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -5857,8 +5851,8 @@
       <c r="B104">
         <v>142</v>
       </c>
-      <c r="C104" t="s">
-        <v>29</v>
+      <c r="C104">
+        <v>0</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -5913,8 +5907,8 @@
       <c r="B105">
         <v>141</v>
       </c>
-      <c r="C105" t="s">
-        <v>29</v>
+      <c r="C105">
+        <v>0</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
@@ -5969,8 +5963,8 @@
       <c r="B106">
         <v>142</v>
       </c>
-      <c r="C106" t="s">
-        <v>29</v>
+      <c r="C106">
+        <v>0</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -6025,8 +6019,8 @@
       <c r="B107">
         <v>136</v>
       </c>
-      <c r="C107" t="s">
-        <v>29</v>
+      <c r="C107">
+        <v>0</v>
       </c>
       <c r="D107" t="s">
         <v>17</v>
@@ -6078,8 +6072,8 @@
       <c r="B108">
         <v>140</v>
       </c>
-      <c r="C108" t="s">
-        <v>29</v>
+      <c r="C108">
+        <v>0</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -6134,8 +6128,8 @@
       <c r="B109">
         <v>136</v>
       </c>
-      <c r="C109" t="s">
-        <v>29</v>
+      <c r="C109">
+        <v>0</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
@@ -6190,8 +6184,8 @@
       <c r="B110">
         <v>136</v>
       </c>
-      <c r="C110" t="s">
-        <v>29</v>
+      <c r="C110">
+        <v>0</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
@@ -6243,8 +6237,8 @@
       <c r="B111">
         <v>144</v>
       </c>
-      <c r="C111" t="s">
-        <v>29</v>
+      <c r="C111">
+        <v>0</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -6299,8 +6293,8 @@
       <c r="B112">
         <v>140</v>
       </c>
-      <c r="C112" t="s">
-        <v>29</v>
+      <c r="C112">
+        <v>0</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -6355,8 +6349,8 @@
       <c r="B113">
         <v>141</v>
       </c>
-      <c r="C113" t="s">
-        <v>29</v>
+      <c r="C113">
+        <v>0</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
@@ -6411,8 +6405,8 @@
       <c r="B114">
         <v>140</v>
       </c>
-      <c r="C114" t="s">
-        <v>29</v>
+      <c r="C114">
+        <v>0</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
@@ -6467,8 +6461,8 @@
       <c r="B115">
         <v>144</v>
       </c>
-      <c r="C115" t="s">
-        <v>29</v>
+      <c r="C115">
+        <v>0</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -6523,8 +6517,8 @@
       <c r="B116">
         <v>144</v>
       </c>
-      <c r="C116" t="s">
-        <v>29</v>
+      <c r="C116">
+        <v>0</v>
       </c>
       <c r="D116" t="s">
         <v>17</v>
@@ -6579,8 +6573,8 @@
       <c r="B117">
         <v>136</v>
       </c>
-      <c r="C117" t="s">
-        <v>29</v>
+      <c r="C117">
+        <v>0</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -6629,8 +6623,8 @@
       <c r="B118">
         <v>137</v>
       </c>
-      <c r="C118" t="s">
-        <v>29</v>
+      <c r="C118">
+        <v>0</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -6682,8 +6676,8 @@
       <c r="B119">
         <v>142</v>
       </c>
-      <c r="C119" t="s">
-        <v>29</v>
+      <c r="C119">
+        <v>0</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
@@ -6738,8 +6732,8 @@
       <c r="B120">
         <v>148</v>
       </c>
-      <c r="C120" t="s">
-        <v>29</v>
+      <c r="C120">
+        <v>0</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
@@ -6794,8 +6788,8 @@
       <c r="B121">
         <v>139</v>
       </c>
-      <c r="C121" t="s">
-        <v>29</v>
+      <c r="C121">
+        <v>0</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
@@ -6847,8 +6841,8 @@
       <c r="B122">
         <v>140</v>
       </c>
-      <c r="C122" t="s">
-        <v>29</v>
+      <c r="C122">
+        <v>0</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -6903,8 +6897,8 @@
       <c r="B123">
         <v>144</v>
       </c>
-      <c r="C123" t="s">
-        <v>29</v>
+      <c r="C123">
+        <v>0</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -6959,8 +6953,8 @@
       <c r="B124">
         <v>153</v>
       </c>
-      <c r="C124" t="s">
-        <v>29</v>
+      <c r="C124">
+        <v>0</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -7015,8 +7009,8 @@
       <c r="B125">
         <v>145</v>
       </c>
-      <c r="C125" t="s">
-        <v>29</v>
+      <c r="C125">
+        <v>0</v>
       </c>
       <c r="D125" t="s">
         <v>17</v>
@@ -7071,8 +7065,8 @@
       <c r="B126">
         <v>142</v>
       </c>
-      <c r="C126" t="s">
-        <v>29</v>
+      <c r="C126">
+        <v>0</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -7127,8 +7121,8 @@
       <c r="B127">
         <v>144</v>
       </c>
-      <c r="C127" t="s">
-        <v>29</v>
+      <c r="C127">
+        <v>0</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -7183,8 +7177,8 @@
       <c r="B128">
         <v>139</v>
       </c>
-      <c r="C128" t="s">
-        <v>29</v>
+      <c r="C128">
+        <v>0</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -7239,8 +7233,8 @@
       <c r="B129">
         <v>141</v>
       </c>
-      <c r="C129" t="s">
-        <v>29</v>
+      <c r="C129">
+        <v>0</v>
       </c>
       <c r="D129" t="s">
         <v>1</v>
@@ -7295,8 +7289,8 @@
       <c r="B130">
         <v>152</v>
       </c>
-      <c r="C130" t="s">
-        <v>29</v>
+      <c r="C130">
+        <v>0</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -7351,8 +7345,8 @@
       <c r="B131">
         <v>141</v>
       </c>
-      <c r="C131" t="s">
-        <v>29</v>
+      <c r="C131">
+        <v>0</v>
       </c>
       <c r="D131" t="s">
         <v>17</v>
@@ -7407,8 +7401,8 @@
       <c r="B132">
         <v>139</v>
       </c>
-      <c r="C132" t="s">
-        <v>29</v>
+      <c r="C132">
+        <v>0</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -7463,8 +7457,8 @@
       <c r="B133">
         <v>138</v>
       </c>
-      <c r="C133" t="s">
-        <v>29</v>
+      <c r="C133">
+        <v>0</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
@@ -7519,8 +7513,8 @@
       <c r="B134">
         <v>137</v>
       </c>
-      <c r="C134" t="s">
-        <v>29</v>
+      <c r="C134">
+        <v>0</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -7575,8 +7569,8 @@
       <c r="B135">
         <v>138</v>
       </c>
-      <c r="C135" t="s">
-        <v>29</v>
+      <c r="C135">
+        <v>0</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -7631,8 +7625,8 @@
       <c r="B136">
         <v>143</v>
       </c>
-      <c r="C136" t="s">
-        <v>29</v>
+      <c r="C136">
+        <v>0</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -7687,8 +7681,8 @@
       <c r="B137">
         <v>137</v>
       </c>
-      <c r="C137" t="s">
-        <v>29</v>
+      <c r="C137">
+        <v>0</v>
       </c>
       <c r="D137" t="s">
         <v>1</v>
@@ -7740,8 +7734,8 @@
       <c r="B138">
         <v>137</v>
       </c>
-      <c r="C138" t="s">
-        <v>29</v>
+      <c r="C138">
+        <v>0</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -7796,8 +7790,8 @@
       <c r="B139">
         <v>142</v>
       </c>
-      <c r="C139" t="s">
-        <v>29</v>
+      <c r="C139">
+        <v>0</v>
       </c>
       <c r="D139" t="s">
         <v>17</v>
@@ -7843,8 +7837,8 @@
       <c r="B140">
         <v>144</v>
       </c>
-      <c r="C140" t="s">
-        <v>29</v>
+      <c r="C140">
+        <v>0</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
@@ -7899,8 +7893,8 @@
       <c r="B141">
         <v>138</v>
       </c>
-      <c r="C141" t="s">
-        <v>29</v>
+      <c r="C141">
+        <v>0</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
@@ -7940,8 +7934,8 @@
       <c r="B142">
         <v>144</v>
       </c>
-      <c r="C142" t="s">
-        <v>29</v>
+      <c r="C142">
+        <v>0</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
@@ -7996,8 +7990,8 @@
       <c r="B143">
         <v>140</v>
       </c>
-      <c r="C143" t="s">
-        <v>29</v>
+      <c r="C143">
+        <v>0</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -8052,8 +8046,8 @@
       <c r="B144">
         <v>136</v>
       </c>
-      <c r="C144" t="s">
-        <v>29</v>
+      <c r="C144">
+        <v>0</v>
       </c>
       <c r="D144" t="s">
         <v>17</v>
@@ -8108,8 +8102,8 @@
       <c r="B145">
         <v>141</v>
       </c>
-      <c r="C145" t="s">
-        <v>29</v>
+      <c r="C145">
+        <v>0</v>
       </c>
       <c r="D145" t="s">
         <v>17</v>
@@ -8164,8 +8158,8 @@
       <c r="B146">
         <v>142</v>
       </c>
-      <c r="C146" t="s">
-        <v>29</v>
+      <c r="C146">
+        <v>0</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -8220,8 +8214,8 @@
       <c r="B147">
         <v>141</v>
       </c>
-      <c r="C147" t="s">
-        <v>29</v>
+      <c r="C147">
+        <v>0</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
@@ -8273,8 +8267,8 @@
       <c r="B148">
         <v>144</v>
       </c>
-      <c r="C148" t="s">
-        <v>29</v>
+      <c r="C148">
+        <v>0</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -8326,8 +8320,8 @@
       <c r="B149">
         <v>144</v>
       </c>
-      <c r="C149" t="s">
-        <v>29</v>
+      <c r="C149">
+        <v>0</v>
       </c>
       <c r="D149" t="s">
         <v>17</v>
@@ -8379,8 +8373,8 @@
       <c r="B150">
         <v>144</v>
       </c>
-      <c r="C150" t="s">
-        <v>29</v>
+      <c r="C150">
+        <v>0</v>
       </c>
       <c r="D150" t="s">
         <v>17</v>
@@ -8435,8 +8429,8 @@
       <c r="B151">
         <v>141</v>
       </c>
-      <c r="C151" t="s">
-        <v>29</v>
+      <c r="C151">
+        <v>0</v>
       </c>
       <c r="D151" t="s">
         <v>17</v>
@@ -8491,8 +8485,8 @@
       <c r="B152">
         <v>138</v>
       </c>
-      <c r="C152" t="s">
-        <v>29</v>
+      <c r="C152">
+        <v>0</v>
       </c>
       <c r="D152" t="s">
         <v>17</v>
@@ -8544,8 +8538,8 @@
       <c r="B153">
         <v>144</v>
       </c>
-      <c r="C153" t="s">
-        <v>29</v>
+      <c r="C153">
+        <v>0</v>
       </c>
       <c r="D153" t="s">
         <v>17</v>
@@ -8600,8 +8594,8 @@
       <c r="B154">
         <v>137</v>
       </c>
-      <c r="C154" t="s">
-        <v>29</v>
+      <c r="C154">
+        <v>0</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -8653,8 +8647,8 @@
       <c r="B155">
         <v>150</v>
       </c>
-      <c r="C155" t="s">
-        <v>29</v>
+      <c r="C155">
+        <v>0</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -8709,8 +8703,8 @@
       <c r="B156">
         <v>145</v>
       </c>
-      <c r="C156" t="s">
-        <v>29</v>
+      <c r="C156">
+        <v>0</v>
       </c>
       <c r="D156" t="s">
         <v>17</v>
@@ -8765,8 +8759,8 @@
       <c r="B157">
         <v>141</v>
       </c>
-      <c r="C157" t="s">
-        <v>29</v>
+      <c r="C157">
+        <v>0</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
@@ -8821,8 +8815,8 @@
       <c r="B158">
         <v>144</v>
       </c>
-      <c r="C158" t="s">
-        <v>29</v>
+      <c r="C158">
+        <v>0</v>
       </c>
       <c r="D158" t="s">
         <v>17</v>
@@ -8877,8 +8871,8 @@
       <c r="B159">
         <v>137</v>
       </c>
-      <c r="C159" t="s">
-        <v>29</v>
+      <c r="C159">
+        <v>0</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -8933,8 +8927,8 @@
       <c r="B160">
         <v>136</v>
       </c>
-      <c r="C160" t="s">
-        <v>29</v>
+      <c r="C160">
+        <v>0</v>
       </c>
       <c r="D160" t="s">
         <v>17</v>
@@ -8986,8 +8980,8 @@
       <c r="B161">
         <v>141</v>
       </c>
-      <c r="C161" t="s">
-        <v>29</v>
+      <c r="C161">
+        <v>0</v>
       </c>
       <c r="D161" t="s">
         <v>1</v>
@@ -9042,8 +9036,8 @@
       <c r="B162">
         <v>147</v>
       </c>
-      <c r="C162" t="s">
-        <v>29</v>
+      <c r="C162">
+        <v>0</v>
       </c>
       <c r="D162" t="s">
         <v>17</v>
@@ -9098,8 +9092,8 @@
       <c r="B163">
         <v>140</v>
       </c>
-      <c r="C163" t="s">
-        <v>29</v>
+      <c r="C163">
+        <v>0</v>
       </c>
       <c r="D163" t="s">
         <v>17</v>
@@ -9154,8 +9148,8 @@
       <c r="B164">
         <v>138</v>
       </c>
-      <c r="C164" t="s">
-        <v>29</v>
+      <c r="C164">
+        <v>0</v>
       </c>
       <c r="D164" t="s">
         <v>17</v>
@@ -9210,8 +9204,8 @@
       <c r="B165">
         <v>144</v>
       </c>
-      <c r="C165" t="s">
-        <v>29</v>
+      <c r="C165">
+        <v>0</v>
       </c>
       <c r="D165" t="s">
         <v>1</v>
@@ -9266,8 +9260,8 @@
       <c r="B166">
         <v>141</v>
       </c>
-      <c r="C166" t="s">
-        <v>29</v>
+      <c r="C166">
+        <v>0</v>
       </c>
       <c r="D166" t="s">
         <v>17</v>
@@ -9322,8 +9316,8 @@
       <c r="B167">
         <v>149</v>
       </c>
-      <c r="C167" t="s">
-        <v>29</v>
+      <c r="C167">
+        <v>0</v>
       </c>
       <c r="D167" t="s">
         <v>17</v>
@@ -9378,8 +9372,8 @@
       <c r="B168">
         <v>138</v>
       </c>
-      <c r="C168" t="s">
-        <v>29</v>
+      <c r="C168">
+        <v>0</v>
       </c>
       <c r="D168" t="s">
         <v>17</v>
@@ -9434,8 +9428,8 @@
       <c r="B169">
         <v>146</v>
       </c>
-      <c r="C169" t="s">
-        <v>29</v>
+      <c r="C169">
+        <v>0</v>
       </c>
       <c r="D169" t="s">
         <v>17</v>
@@ -9490,8 +9484,8 @@
       <c r="B170">
         <v>140</v>
       </c>
-      <c r="C170" t="s">
-        <v>29</v>
+      <c r="C170">
+        <v>0</v>
       </c>
       <c r="D170" t="s">
         <v>17</v>
@@ -9546,8 +9540,8 @@
       <c r="B171">
         <v>142</v>
       </c>
-      <c r="C171" t="s">
-        <v>29</v>
+      <c r="C171">
+        <v>0</v>
       </c>
       <c r="D171" t="s">
         <v>17</v>
@@ -9602,8 +9596,8 @@
       <c r="B172">
         <v>141</v>
       </c>
-      <c r="C172" t="s">
-        <v>29</v>
+      <c r="C172">
+        <v>0</v>
       </c>
       <c r="D172" t="s">
         <v>17</v>
@@ -9658,8 +9652,8 @@
       <c r="B173">
         <v>140</v>
       </c>
-      <c r="C173" t="s">
-        <v>29</v>
+      <c r="C173">
+        <v>0</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
@@ -9714,8 +9708,8 @@
       <c r="B174">
         <v>137</v>
       </c>
-      <c r="C174" t="s">
-        <v>29</v>
+      <c r="C174">
+        <v>0</v>
       </c>
       <c r="D174" t="s">
         <v>17</v>
@@ -9770,8 +9764,8 @@
       <c r="B175">
         <v>141</v>
       </c>
-      <c r="C175" t="s">
-        <v>29</v>
+      <c r="C175">
+        <v>0</v>
       </c>
       <c r="D175" t="s">
         <v>17</v>
@@ -9826,8 +9820,8 @@
       <c r="B176">
         <v>140</v>
       </c>
-      <c r="C176" t="s">
-        <v>29</v>
+      <c r="C176">
+        <v>0</v>
       </c>
       <c r="D176" t="s">
         <v>17</v>
@@ -9882,8 +9876,8 @@
       <c r="B177">
         <v>142</v>
       </c>
-      <c r="C177" t="s">
-        <v>29</v>
+      <c r="C177">
+        <v>0</v>
       </c>
       <c r="D177" t="s">
         <v>17</v>
@@ -9938,8 +9932,8 @@
       <c r="B178">
         <v>156</v>
       </c>
-      <c r="C178" t="s">
-        <v>29</v>
+      <c r="C178">
+        <v>0</v>
       </c>
       <c r="D178" t="s">
         <v>17</v>
@@ -9994,8 +9988,8 @@
       <c r="B179">
         <v>144</v>
       </c>
-      <c r="C179" t="s">
-        <v>29</v>
+      <c r="C179">
+        <v>0</v>
       </c>
       <c r="D179" t="s">
         <v>17</v>
@@ -10050,8 +10044,8 @@
       <c r="B180">
         <v>137</v>
       </c>
-      <c r="C180" t="s">
-        <v>29</v>
+      <c r="C180">
+        <v>0</v>
       </c>
       <c r="D180" t="s">
         <v>17</v>
@@ -10106,8 +10100,8 @@
       <c r="B181">
         <v>144</v>
       </c>
-      <c r="C181" t="s">
-        <v>29</v>
+      <c r="C181">
+        <v>0</v>
       </c>
       <c r="D181" t="s">
         <v>17</v>
@@ -10162,8 +10156,8 @@
       <c r="B182">
         <v>138</v>
       </c>
-      <c r="C182" t="s">
-        <v>29</v>
+      <c r="C182">
+        <v>0</v>
       </c>
       <c r="D182" t="s">
         <v>1</v>
@@ -10218,8 +10212,8 @@
       <c r="B183">
         <v>140</v>
       </c>
-      <c r="C183" t="s">
-        <v>29</v>
+      <c r="C183">
+        <v>0</v>
       </c>
       <c r="D183" t="s">
         <v>1</v>
@@ -10274,8 +10268,8 @@
       <c r="B184">
         <v>139</v>
       </c>
-      <c r="C184" t="s">
-        <v>29</v>
+      <c r="C184">
+        <v>0</v>
       </c>
       <c r="D184" t="s">
         <v>1</v>
@@ -10330,8 +10324,8 @@
       <c r="B185">
         <v>145</v>
       </c>
-      <c r="C185" t="s">
-        <v>29</v>
+      <c r="C185">
+        <v>0</v>
       </c>
       <c r="D185" t="s">
         <v>17</v>
@@ -10377,8 +10371,8 @@
       <c r="B186">
         <v>144</v>
       </c>
-      <c r="C186" t="s">
-        <v>29</v>
+      <c r="C186">
+        <v>0</v>
       </c>
       <c r="D186" t="s">
         <v>1</v>
@@ -10433,8 +10427,8 @@
       <c r="B187">
         <v>145</v>
       </c>
-      <c r="C187" t="s">
-        <v>29</v>
+      <c r="C187">
+        <v>0</v>
       </c>
       <c r="D187" t="s">
         <v>17</v>
@@ -10489,8 +10483,8 @@
       <c r="B188">
         <v>137</v>
       </c>
-      <c r="C188" t="s">
-        <v>29</v>
+      <c r="C188">
+        <v>0</v>
       </c>
       <c r="D188" t="s">
         <v>1</v>
@@ -10545,8 +10539,8 @@
       <c r="B189">
         <v>141</v>
       </c>
-      <c r="C189" t="s">
-        <v>29</v>
+      <c r="C189">
+        <v>0</v>
       </c>
       <c r="D189" t="s">
         <v>17</v>
@@ -10601,8 +10595,8 @@
       <c r="B190">
         <v>142</v>
       </c>
-      <c r="C190" t="s">
-        <v>29</v>
+      <c r="C190">
+        <v>0</v>
       </c>
       <c r="D190" t="s">
         <v>17</v>
@@ -10657,8 +10651,8 @@
       <c r="B191">
         <v>141</v>
       </c>
-      <c r="C191" t="s">
-        <v>29</v>
+      <c r="C191">
+        <v>0</v>
       </c>
       <c r="D191" t="s">
         <v>17</v>
@@ -10713,8 +10707,8 @@
       <c r="B192">
         <v>139</v>
       </c>
-      <c r="C192" t="s">
-        <v>29</v>
+      <c r="C192">
+        <v>0</v>
       </c>
       <c r="D192" t="s">
         <v>17</v>
@@ -10769,8 +10763,8 @@
       <c r="B193">
         <v>145</v>
       </c>
-      <c r="C193" t="s">
-        <v>29</v>
+      <c r="C193">
+        <v>0</v>
       </c>
       <c r="D193" t="s">
         <v>17</v>
@@ -10822,8 +10816,8 @@
       <c r="B194">
         <v>137</v>
       </c>
-      <c r="C194" t="s">
-        <v>29</v>
+      <c r="C194">
+        <v>0</v>
       </c>
       <c r="D194" t="s">
         <v>1</v>
@@ -10878,8 +10872,8 @@
       <c r="B195">
         <v>144</v>
       </c>
-      <c r="C195" t="s">
-        <v>29</v>
+      <c r="C195">
+        <v>0</v>
       </c>
       <c r="D195" t="s">
         <v>17</v>
@@ -10928,8 +10922,8 @@
       <c r="B196">
         <v>148</v>
       </c>
-      <c r="C196" t="s">
-        <v>29</v>
+      <c r="C196">
+        <v>0</v>
       </c>
       <c r="D196" t="s">
         <v>17</v>
@@ -10984,8 +10978,8 @@
       <c r="B197">
         <v>142</v>
       </c>
-      <c r="C197" t="s">
-        <v>29</v>
+      <c r="C197">
+        <v>0</v>
       </c>
       <c r="D197" t="s">
         <v>1</v>
@@ -11037,8 +11031,8 @@
       <c r="B198">
         <v>144</v>
       </c>
-      <c r="C198" t="s">
-        <v>29</v>
+      <c r="C198">
+        <v>0</v>
       </c>
       <c r="D198" t="s">
         <v>17</v>
@@ -11093,8 +11087,8 @@
       <c r="B199">
         <v>141</v>
       </c>
-      <c r="C199" t="s">
-        <v>29</v>
+      <c r="C199">
+        <v>0</v>
       </c>
       <c r="D199" t="s">
         <v>17</v>
@@ -11149,8 +11143,8 @@
       <c r="B200">
         <v>142</v>
       </c>
-      <c r="C200" t="s">
-        <v>29</v>
+      <c r="C200">
+        <v>0</v>
       </c>
       <c r="D200" t="s">
         <v>1</v>
@@ -11205,8 +11199,8 @@
       <c r="B201">
         <v>146</v>
       </c>
-      <c r="C201" t="s">
-        <v>29</v>
+      <c r="C201">
+        <v>0</v>
       </c>
       <c r="D201" t="s">
         <v>17</v>
@@ -11261,8 +11255,8 @@
       <c r="B202">
         <v>141</v>
       </c>
-      <c r="C202" t="s">
-        <v>29</v>
+      <c r="C202">
+        <v>0</v>
       </c>
       <c r="D202" t="s">
         <v>17</v>
@@ -11317,8 +11311,8 @@
       <c r="B203">
         <v>145</v>
       </c>
-      <c r="C203" t="s">
-        <v>29</v>
+      <c r="C203">
+        <v>0</v>
       </c>
       <c r="D203" t="s">
         <v>17</v>
@@ -11364,8 +11358,8 @@
       <c r="B204">
         <v>139</v>
       </c>
-      <c r="C204" t="s">
-        <v>29</v>
+      <c r="C204">
+        <v>0</v>
       </c>
       <c r="D204" t="s">
         <v>17</v>
@@ -11420,8 +11414,8 @@
       <c r="B205">
         <v>142</v>
       </c>
-      <c r="C205" t="s">
-        <v>29</v>
+      <c r="C205">
+        <v>0</v>
       </c>
       <c r="D205" t="s">
         <v>17</v>
@@ -11476,8 +11470,8 @@
       <c r="B206">
         <v>140</v>
       </c>
-      <c r="C206" t="s">
-        <v>29</v>
+      <c r="C206">
+        <v>0</v>
       </c>
       <c r="D206" t="s">
         <v>17</v>
@@ -11526,8 +11520,8 @@
       <c r="B207">
         <v>143</v>
       </c>
-      <c r="C207" t="s">
-        <v>29</v>
+      <c r="C207">
+        <v>0</v>
       </c>
       <c r="D207" t="s">
         <v>17</v>
@@ -11582,8 +11576,8 @@
       <c r="B208">
         <v>145</v>
       </c>
-      <c r="C208" t="s">
-        <v>29</v>
+      <c r="C208">
+        <v>0</v>
       </c>
       <c r="D208" t="s">
         <v>1</v>
@@ -11638,8 +11632,8 @@
       <c r="B209">
         <v>137</v>
       </c>
-      <c r="C209" t="s">
-        <v>29</v>
+      <c r="C209">
+        <v>0</v>
       </c>
       <c r="D209" t="s">
         <v>17</v>
@@ -11694,8 +11688,8 @@
       <c r="B210">
         <v>146</v>
       </c>
-      <c r="C210" t="s">
-        <v>29</v>
+      <c r="C210">
+        <v>0</v>
       </c>
       <c r="D210" t="s">
         <v>1</v>
@@ -11750,8 +11744,8 @@
       <c r="B211">
         <v>147</v>
       </c>
-      <c r="C211" t="s">
-        <v>29</v>
+      <c r="C211">
+        <v>0</v>
       </c>
       <c r="D211" t="s">
         <v>17</v>
@@ -11806,8 +11800,8 @@
       <c r="B212">
         <v>138</v>
       </c>
-      <c r="C212" t="s">
-        <v>29</v>
+      <c r="C212">
+        <v>0</v>
       </c>
       <c r="D212" t="s">
         <v>17</v>
@@ -11862,8 +11856,8 @@
       <c r="B213">
         <v>140</v>
       </c>
-      <c r="C213" t="s">
-        <v>29</v>
+      <c r="C213">
+        <v>0</v>
       </c>
       <c r="D213" t="s">
         <v>17</v>
@@ -11918,8 +11912,8 @@
       <c r="B214">
         <v>138</v>
       </c>
-      <c r="C214" t="s">
-        <v>29</v>
+      <c r="C214">
+        <v>0</v>
       </c>
       <c r="D214" t="s">
         <v>17</v>
@@ -11974,8 +11968,8 @@
       <c r="B215">
         <v>146</v>
       </c>
-      <c r="C215" t="s">
-        <v>29</v>
+      <c r="C215">
+        <v>0</v>
       </c>
       <c r="D215" t="s">
         <v>1</v>
@@ -12030,8 +12024,8 @@
       <c r="B216">
         <v>142</v>
       </c>
-      <c r="C216" t="s">
-        <v>29</v>
+      <c r="C216">
+        <v>0</v>
       </c>
       <c r="D216" t="s">
         <v>17</v>
@@ -12086,8 +12080,8 @@
       <c r="B217">
         <v>142</v>
       </c>
-      <c r="C217" t="s">
-        <v>29</v>
+      <c r="C217">
+        <v>0</v>
       </c>
       <c r="D217" t="s">
         <v>17</v>
@@ -12142,8 +12136,8 @@
       <c r="B218">
         <v>141</v>
       </c>
-      <c r="C218" t="s">
-        <v>29</v>
+      <c r="C218">
+        <v>0</v>
       </c>
       <c r="D218" t="s">
         <v>17</v>
@@ -12195,8 +12189,8 @@
       <c r="B219">
         <v>140</v>
       </c>
-      <c r="C219" t="s">
-        <v>29</v>
+      <c r="C219">
+        <v>0</v>
       </c>
       <c r="D219" t="s">
         <v>17</v>
@@ -12251,8 +12245,8 @@
       <c r="B220">
         <v>140</v>
       </c>
-      <c r="C220" t="s">
-        <v>29</v>
+      <c r="C220">
+        <v>0</v>
       </c>
       <c r="D220" t="s">
         <v>1</v>
@@ -12304,8 +12298,8 @@
       <c r="B221">
         <v>142</v>
       </c>
-      <c r="C221" t="s">
-        <v>29</v>
+      <c r="C221">
+        <v>0</v>
       </c>
       <c r="D221" t="s">
         <v>1</v>
@@ -12360,8 +12354,8 @@
       <c r="B222">
         <v>140</v>
       </c>
-      <c r="C222" t="s">
-        <v>29</v>
+      <c r="C222">
+        <v>0</v>
       </c>
       <c r="D222" t="s">
         <v>17</v>
@@ -12416,8 +12410,8 @@
       <c r="B223">
         <v>144</v>
       </c>
-      <c r="C223" t="s">
-        <v>29</v>
+      <c r="C223">
+        <v>0</v>
       </c>
       <c r="D223" t="s">
         <v>17</v>
@@ -12472,8 +12466,8 @@
       <c r="B224">
         <v>140</v>
       </c>
-      <c r="C224" t="s">
-        <v>29</v>
+      <c r="C224">
+        <v>0</v>
       </c>
       <c r="D224" t="s">
         <v>1</v>
@@ -12528,8 +12522,8 @@
       <c r="B225">
         <v>142</v>
       </c>
-      <c r="C225" t="s">
-        <v>29</v>
+      <c r="C225">
+        <v>0</v>
       </c>
       <c r="D225" t="s">
         <v>17</v>
@@ -12581,8 +12575,8 @@
       <c r="B226">
         <v>146</v>
       </c>
-      <c r="C226" t="s">
-        <v>29</v>
+      <c r="C226">
+        <v>0</v>
       </c>
       <c r="D226" t="s">
         <v>17</v>
@@ -12637,8 +12631,8 @@
       <c r="B227">
         <v>148</v>
       </c>
-      <c r="C227" t="s">
-        <v>29</v>
+      <c r="C227">
+        <v>0</v>
       </c>
       <c r="D227" t="s">
         <v>17</v>
@@ -12690,8 +12684,8 @@
       <c r="B228">
         <v>145</v>
       </c>
-      <c r="C228" t="s">
-        <v>29</v>
+      <c r="C228">
+        <v>0</v>
       </c>
       <c r="D228" t="s">
         <v>17</v>
@@ -12746,8 +12740,8 @@
       <c r="B229">
         <v>144</v>
       </c>
-      <c r="C229" t="s">
-        <v>29</v>
+      <c r="C229">
+        <v>0</v>
       </c>
       <c r="D229" t="s">
         <v>17</v>
@@ -12802,8 +12796,8 @@
       <c r="B230">
         <v>141</v>
       </c>
-      <c r="C230" t="s">
-        <v>29</v>
+      <c r="C230">
+        <v>0</v>
       </c>
       <c r="D230" t="s">
         <v>17</v>
@@ -12858,8 +12852,8 @@
       <c r="B231">
         <v>141</v>
       </c>
-      <c r="C231" t="s">
-        <v>29</v>
+      <c r="C231">
+        <v>0</v>
       </c>
       <c r="D231" t="s">
         <v>17</v>
@@ -12914,8 +12908,8 @@
       <c r="B232">
         <v>143</v>
       </c>
-      <c r="C232" t="s">
-        <v>29</v>
+      <c r="C232">
+        <v>0</v>
       </c>
       <c r="D232" t="s">
         <v>17</v>
@@ -12970,8 +12964,8 @@
       <c r="B233">
         <v>142</v>
       </c>
-      <c r="C233" t="s">
-        <v>29</v>
+      <c r="C233">
+        <v>0</v>
       </c>
       <c r="D233" t="s">
         <v>17</v>
@@ -13026,8 +13020,8 @@
       <c r="B234">
         <v>145</v>
       </c>
-      <c r="C234" t="s">
-        <v>29</v>
+      <c r="C234">
+        <v>0</v>
       </c>
       <c r="D234" t="s">
         <v>17</v>
@@ -13082,8 +13076,8 @@
       <c r="B235">
         <v>139</v>
       </c>
-      <c r="C235" t="s">
-        <v>29</v>
+      <c r="C235">
+        <v>0</v>
       </c>
       <c r="D235" t="s">
         <v>17</v>
@@ -13138,8 +13132,8 @@
       <c r="B236">
         <v>145</v>
       </c>
-      <c r="C236" t="s">
-        <v>29</v>
+      <c r="C236">
+        <v>0</v>
       </c>
       <c r="D236" t="s">
         <v>17</v>
@@ -13194,8 +13188,8 @@
       <c r="B237">
         <v>138</v>
       </c>
-      <c r="C237" t="s">
-        <v>29</v>
+      <c r="C237">
+        <v>0</v>
       </c>
       <c r="D237" t="s">
         <v>17</v>
@@ -13247,8 +13241,8 @@
       <c r="B238">
         <v>140</v>
       </c>
-      <c r="C238" t="s">
-        <v>29</v>
+      <c r="C238">
+        <v>0</v>
       </c>
       <c r="D238" t="s">
         <v>17</v>
@@ -13303,8 +13297,8 @@
       <c r="B239">
         <v>147</v>
       </c>
-      <c r="C239" t="s">
-        <v>29</v>
+      <c r="C239">
+        <v>0</v>
       </c>
       <c r="D239" t="s">
         <v>17</v>
@@ -13347,8 +13341,8 @@
       <c r="B240">
         <v>137</v>
       </c>
-      <c r="C240" t="s">
-        <v>29</v>
+      <c r="C240">
+        <v>0</v>
       </c>
       <c r="D240" t="s">
         <v>17</v>
@@ -13403,8 +13397,8 @@
       <c r="B241">
         <v>142</v>
       </c>
-      <c r="C241" t="s">
-        <v>29</v>
+      <c r="C241">
+        <v>0</v>
       </c>
       <c r="D241" t="s">
         <v>17</v>
@@ -13456,8 +13450,8 @@
       <c r="B242">
         <v>140</v>
       </c>
-      <c r="C242" t="s">
-        <v>29</v>
+      <c r="C242">
+        <v>0</v>
       </c>
       <c r="D242" t="s">
         <v>17</v>
@@ -13512,8 +13506,8 @@
       <c r="B243">
         <v>141</v>
       </c>
-      <c r="C243" t="s">
-        <v>29</v>
+      <c r="C243">
+        <v>0</v>
       </c>
       <c r="D243" t="s">
         <v>17</v>
@@ -13568,8 +13562,8 @@
       <c r="B244">
         <v>138</v>
       </c>
-      <c r="C244" t="s">
-        <v>29</v>
+      <c r="C244">
+        <v>0</v>
       </c>
       <c r="D244" t="s">
         <v>17</v>
@@ -13624,8 +13618,8 @@
       <c r="B245">
         <v>145</v>
       </c>
-      <c r="C245" t="s">
-        <v>29</v>
+      <c r="C245">
+        <v>0</v>
       </c>
       <c r="D245" t="s">
         <v>17</v>
@@ -13680,8 +13674,8 @@
       <c r="B246">
         <v>151</v>
       </c>
-      <c r="C246" t="s">
-        <v>29</v>
+      <c r="C246">
+        <v>0</v>
       </c>
       <c r="D246" t="s">
         <v>17</v>
@@ -13736,8 +13730,8 @@
       <c r="B247">
         <v>144</v>
       </c>
-      <c r="C247" t="s">
-        <v>29</v>
+      <c r="C247">
+        <v>0</v>
       </c>
       <c r="D247" t="s">
         <v>17</v>
@@ -13792,8 +13786,8 @@
       <c r="B248">
         <v>141</v>
       </c>
-      <c r="C248" t="s">
-        <v>29</v>
+      <c r="C248">
+        <v>0</v>
       </c>
       <c r="D248" t="s">
         <v>17</v>
@@ -13848,8 +13842,8 @@
       <c r="B249">
         <v>143</v>
       </c>
-      <c r="C249" t="s">
-        <v>29</v>
+      <c r="C249">
+        <v>0</v>
       </c>
       <c r="D249" t="s">
         <v>17</v>
@@ -13904,8 +13898,8 @@
       <c r="B250">
         <v>142</v>
       </c>
-      <c r="C250" t="s">
-        <v>29</v>
+      <c r="C250">
+        <v>0</v>
       </c>
       <c r="D250" t="s">
         <v>17</v>
@@ -13960,8 +13954,8 @@
       <c r="B251">
         <v>141</v>
       </c>
-      <c r="C251" t="s">
-        <v>29</v>
+      <c r="C251">
+        <v>0</v>
       </c>
       <c r="D251" t="s">
         <v>17</v>
@@ -14016,8 +14010,8 @@
       <c r="B252">
         <v>139</v>
       </c>
-      <c r="C252" t="s">
-        <v>29</v>
+      <c r="C252">
+        <v>0</v>
       </c>
       <c r="D252" t="s">
         <v>17</v>
@@ -14072,8 +14066,8 @@
       <c r="B253">
         <v>140</v>
       </c>
-      <c r="C253" t="s">
-        <v>29</v>
+      <c r="C253">
+        <v>0</v>
       </c>
       <c r="D253" t="s">
         <v>17</v>
@@ -14125,8 +14119,8 @@
       <c r="B254">
         <v>139</v>
       </c>
-      <c r="C254" t="s">
-        <v>29</v>
+      <c r="C254">
+        <v>0</v>
       </c>
       <c r="D254" t="s">
         <v>1</v>
@@ -14178,8 +14172,8 @@
       <c r="B255">
         <v>138</v>
       </c>
-      <c r="C255" t="s">
-        <v>29</v>
+      <c r="C255">
+        <v>0</v>
       </c>
       <c r="D255" t="s">
         <v>1</v>
@@ -14231,8 +14225,8 @@
       <c r="B256">
         <v>139</v>
       </c>
-      <c r="C256" t="s">
-        <v>29</v>
+      <c r="C256">
+        <v>0</v>
       </c>
       <c r="D256" t="s">
         <v>17</v>
@@ -14287,8 +14281,8 @@
       <c r="B257">
         <v>144</v>
       </c>
-      <c r="C257" t="s">
-        <v>29</v>
+      <c r="C257">
+        <v>0</v>
       </c>
       <c r="D257" t="s">
         <v>17</v>
@@ -14337,8 +14331,8 @@
       <c r="B258">
         <v>147</v>
       </c>
-      <c r="C258" t="s">
-        <v>29</v>
+      <c r="C258">
+        <v>0</v>
       </c>
       <c r="D258" t="s">
         <v>1</v>
@@ -14393,8 +14387,8 @@
       <c r="B259">
         <v>142</v>
       </c>
-      <c r="C259" t="s">
-        <v>29</v>
+      <c r="C259">
+        <v>0</v>
       </c>
       <c r="D259" t="s">
         <v>17</v>
@@ -14446,8 +14440,8 @@
       <c r="B260">
         <v>141</v>
       </c>
-      <c r="C260" t="s">
-        <v>29</v>
+      <c r="C260">
+        <v>0</v>
       </c>
       <c r="D260" t="s">
         <v>17</v>
@@ -14502,8 +14496,8 @@
       <c r="B261">
         <v>138</v>
       </c>
-      <c r="C261" t="s">
-        <v>29</v>
+      <c r="C261">
+        <v>0</v>
       </c>
       <c r="D261" t="s">
         <v>17</v>
@@ -14555,8 +14549,8 @@
       <c r="B262">
         <v>138</v>
       </c>
-      <c r="C262" t="s">
-        <v>29</v>
+      <c r="C262">
+        <v>0</v>
       </c>
       <c r="D262" t="s">
         <v>17</v>
@@ -14611,8 +14605,8 @@
       <c r="B263">
         <v>142</v>
       </c>
-      <c r="C263" t="s">
-        <v>29</v>
+      <c r="C263">
+        <v>0</v>
       </c>
       <c r="D263" t="s">
         <v>17</v>
@@ -14664,8 +14658,8 @@
       <c r="B264">
         <v>140</v>
       </c>
-      <c r="C264" t="s">
-        <v>29</v>
+      <c r="C264">
+        <v>0</v>
       </c>
       <c r="D264" t="s">
         <v>17</v>
@@ -14720,8 +14714,8 @@
       <c r="B265">
         <v>139</v>
       </c>
-      <c r="C265" t="s">
-        <v>29</v>
+      <c r="C265">
+        <v>0</v>
       </c>
       <c r="D265" t="s">
         <v>17</v>
@@ -14776,8 +14770,8 @@
       <c r="B266">
         <v>139</v>
       </c>
-      <c r="C266" t="s">
-        <v>29</v>
+      <c r="C266">
+        <v>0</v>
       </c>
       <c r="D266" t="s">
         <v>17</v>
@@ -14832,8 +14826,8 @@
       <c r="B267">
         <v>139</v>
       </c>
-      <c r="C267" t="s">
-        <v>29</v>
+      <c r="C267">
+        <v>0</v>
       </c>
       <c r="D267" t="s">
         <v>17</v>
@@ -14885,8 +14879,8 @@
       <c r="B268">
         <v>141</v>
       </c>
-      <c r="C268" t="s">
-        <v>29</v>
+      <c r="C268">
+        <v>0</v>
       </c>
       <c r="D268" t="s">
         <v>17</v>
@@ -14941,8 +14935,8 @@
       <c r="B269">
         <v>139</v>
       </c>
-      <c r="C269" t="s">
-        <v>29</v>
+      <c r="C269">
+        <v>0</v>
       </c>
       <c r="D269" t="s">
         <v>17</v>
@@ -14994,8 +14988,8 @@
       <c r="B270">
         <v>145</v>
       </c>
-      <c r="C270" t="s">
-        <v>29</v>
+      <c r="C270">
+        <v>0</v>
       </c>
       <c r="D270" t="s">
         <v>17</v>
@@ -15038,8 +15032,8 @@
       <c r="B271">
         <v>145</v>
       </c>
-      <c r="C271" t="s">
-        <v>29</v>
+      <c r="C271">
+        <v>0</v>
       </c>
       <c r="D271" t="s">
         <v>17</v>
@@ -15094,8 +15088,8 @@
       <c r="B272">
         <v>143</v>
       </c>
-      <c r="C272" t="s">
-        <v>29</v>
+      <c r="C272">
+        <v>0</v>
       </c>
       <c r="D272" t="s">
         <v>17</v>
@@ -15147,8 +15141,8 @@
       <c r="B273">
         <v>144</v>
       </c>
-      <c r="C273" t="s">
-        <v>29</v>
+      <c r="C273">
+        <v>0</v>
       </c>
       <c r="D273" t="s">
         <v>17</v>
@@ -15200,8 +15194,8 @@
       <c r="B274">
         <v>140</v>
       </c>
-      <c r="C274" t="s">
-        <v>29</v>
+      <c r="C274">
+        <v>0</v>
       </c>
       <c r="D274" t="s">
         <v>17</v>
@@ -15256,8 +15250,8 @@
       <c r="B275">
         <v>143</v>
       </c>
-      <c r="C275" t="s">
-        <v>29</v>
+      <c r="C275">
+        <v>0</v>
       </c>
       <c r="D275" t="s">
         <v>17</v>
@@ -15309,8 +15303,8 @@
       <c r="B276">
         <v>141</v>
       </c>
-      <c r="C276" t="s">
-        <v>29</v>
+      <c r="C276">
+        <v>0</v>
       </c>
       <c r="D276" t="s">
         <v>17</v>
@@ -15365,8 +15359,8 @@
       <c r="B277">
         <v>142</v>
       </c>
-      <c r="C277" t="s">
-        <v>29</v>
+      <c r="C277">
+        <v>0</v>
       </c>
       <c r="D277" t="s">
         <v>17</v>
@@ -15421,8 +15415,8 @@
       <c r="B278">
         <v>142</v>
       </c>
-      <c r="C278" t="s">
-        <v>29</v>
+      <c r="C278">
+        <v>0</v>
       </c>
       <c r="D278" t="s">
         <v>17</v>
@@ -15477,8 +15471,8 @@
       <c r="B279">
         <v>143</v>
       </c>
-      <c r="C279" t="s">
-        <v>29</v>
+      <c r="C279">
+        <v>0</v>
       </c>
       <c r="D279" t="s">
         <v>17</v>
@@ -15533,8 +15527,8 @@
       <c r="B280">
         <v>146</v>
       </c>
-      <c r="C280" t="s">
-        <v>29</v>
+      <c r="C280">
+        <v>0</v>
       </c>
       <c r="D280" t="s">
         <v>17</v>
@@ -15589,8 +15583,8 @@
       <c r="B281">
         <v>140</v>
       </c>
-      <c r="C281" t="s">
-        <v>29</v>
+      <c r="C281">
+        <v>0</v>
       </c>
       <c r="D281" t="s">
         <v>17</v>
@@ -15645,8 +15639,8 @@
       <c r="B282">
         <v>142</v>
       </c>
-      <c r="C282" t="s">
-        <v>29</v>
+      <c r="C282">
+        <v>0</v>
       </c>
       <c r="D282" t="s">
         <v>17</v>
@@ -15698,8 +15692,8 @@
       <c r="B283">
         <v>138</v>
       </c>
-      <c r="C283" t="s">
-        <v>29</v>
+      <c r="C283">
+        <v>0</v>
       </c>
       <c r="D283" t="s">
         <v>17</v>
@@ -15754,8 +15748,8 @@
       <c r="B284">
         <v>137</v>
       </c>
-      <c r="C284" t="s">
-        <v>29</v>
+      <c r="C284">
+        <v>0</v>
       </c>
       <c r="D284" t="s">
         <v>17</v>
@@ -15810,8 +15804,8 @@
       <c r="B285">
         <v>141</v>
       </c>
-      <c r="C285" t="s">
-        <v>29</v>
+      <c r="C285">
+        <v>0</v>
       </c>
       <c r="D285" t="s">
         <v>17</v>
@@ -15866,8 +15860,8 @@
       <c r="B286">
         <v>141</v>
       </c>
-      <c r="C286" t="s">
-        <v>29</v>
+      <c r="C286">
+        <v>0</v>
       </c>
       <c r="D286" t="s">
         <v>17</v>
@@ -15922,8 +15916,8 @@
       <c r="B287">
         <v>146</v>
       </c>
-      <c r="C287" t="s">
-        <v>29</v>
+      <c r="C287">
+        <v>0</v>
       </c>
       <c r="D287" t="s">
         <v>17</v>
@@ -15972,8 +15966,8 @@
       <c r="B288">
         <v>138</v>
       </c>
-      <c r="C288" t="s">
-        <v>29</v>
+      <c r="C288">
+        <v>0</v>
       </c>
       <c r="D288" t="s">
         <v>17</v>
@@ -16028,8 +16022,8 @@
       <c r="B289">
         <v>143</v>
       </c>
-      <c r="C289" t="s">
-        <v>29</v>
+      <c r="C289">
+        <v>0</v>
       </c>
       <c r="D289" t="s">
         <v>17</v>
@@ -16081,8 +16075,8 @@
       <c r="B290">
         <v>143</v>
       </c>
-      <c r="C290" t="s">
-        <v>29</v>
+      <c r="C290">
+        <v>0</v>
       </c>
       <c r="D290" t="s">
         <v>17</v>
@@ -16134,8 +16128,8 @@
       <c r="B291">
         <v>137</v>
       </c>
-      <c r="C291" t="s">
-        <v>29</v>
+      <c r="C291">
+        <v>0</v>
       </c>
       <c r="D291" t="s">
         <v>17</v>
@@ -16190,8 +16184,8 @@
       <c r="B292">
         <v>143</v>
       </c>
-      <c r="C292" t="s">
-        <v>29</v>
+      <c r="C292">
+        <v>0</v>
       </c>
       <c r="D292" t="s">
         <v>17</v>
@@ -16246,8 +16240,8 @@
       <c r="B293">
         <v>139</v>
       </c>
-      <c r="C293" t="s">
-        <v>29</v>
+      <c r="C293">
+        <v>0</v>
       </c>
       <c r="D293" t="s">
         <v>17</v>
@@ -16302,8 +16296,8 @@
       <c r="B294">
         <v>142</v>
       </c>
-      <c r="C294" t="s">
-        <v>29</v>
+      <c r="C294">
+        <v>0</v>
       </c>
       <c r="D294" t="s">
         <v>17</v>
@@ -16358,8 +16352,8 @@
       <c r="B295">
         <v>136</v>
       </c>
-      <c r="C295" t="s">
-        <v>29</v>
+      <c r="C295">
+        <v>0</v>
       </c>
       <c r="D295" t="s">
         <v>17</v>
@@ -16414,8 +16408,8 @@
       <c r="B296">
         <v>137</v>
       </c>
-      <c r="C296" t="s">
-        <v>29</v>
+      <c r="C296">
+        <v>0</v>
       </c>
       <c r="D296" t="s">
         <v>17</v>
@@ -16470,8 +16464,8 @@
       <c r="B297">
         <v>142</v>
       </c>
-      <c r="C297" t="s">
-        <v>29</v>
+      <c r="C297">
+        <v>0</v>
       </c>
       <c r="D297" t="s">
         <v>17</v>
@@ -16526,8 +16520,8 @@
       <c r="B298">
         <v>140</v>
       </c>
-      <c r="C298" t="s">
-        <v>29</v>
+      <c r="C298">
+        <v>0</v>
       </c>
       <c r="D298" t="s">
         <v>17</v>
@@ -16582,8 +16576,8 @@
       <c r="B299">
         <v>137</v>
       </c>
-      <c r="C299" t="s">
-        <v>29</v>
+      <c r="C299">
+        <v>0</v>
       </c>
       <c r="D299" t="s">
         <v>17</v>
@@ -16638,8 +16632,8 @@
       <c r="B300">
         <v>140</v>
       </c>
-      <c r="C300" t="s">
-        <v>29</v>
+      <c r="C300">
+        <v>0</v>
       </c>
       <c r="D300" t="s">
         <v>17</v>
@@ -16694,8 +16688,8 @@
       <c r="B301">
         <v>146</v>
       </c>
-      <c r="C301" t="s">
-        <v>29</v>
+      <c r="C301">
+        <v>0</v>
       </c>
       <c r="D301" t="s">
         <v>17</v>
@@ -16741,8 +16735,8 @@
       <c r="B302">
         <v>144</v>
       </c>
-      <c r="C302" t="s">
-        <v>29</v>
+      <c r="C302">
+        <v>0</v>
       </c>
       <c r="D302" t="s">
         <v>17</v>
@@ -16797,8 +16791,8 @@
       <c r="B303">
         <v>138</v>
       </c>
-      <c r="C303" t="s">
-        <v>29</v>
+      <c r="C303">
+        <v>0</v>
       </c>
       <c r="D303" t="s">
         <v>17</v>
@@ -16853,8 +16847,8 @@
       <c r="B304">
         <v>141</v>
       </c>
-      <c r="C304" t="s">
-        <v>29</v>
+      <c r="C304">
+        <v>0</v>
       </c>
       <c r="D304" t="s">
         <v>17</v>
@@ -16909,8 +16903,8 @@
       <c r="B305">
         <v>140</v>
       </c>
-      <c r="C305" t="s">
-        <v>29</v>
+      <c r="C305">
+        <v>0</v>
       </c>
       <c r="D305" t="s">
         <v>17</v>
@@ -16962,8 +16956,8 @@
       <c r="B306">
         <v>143</v>
       </c>
-      <c r="C306" t="s">
-        <v>29</v>
+      <c r="C306">
+        <v>0</v>
       </c>
       <c r="D306" t="s">
         <v>17</v>
@@ -17018,8 +17012,8 @@
       <c r="B307">
         <v>140</v>
       </c>
-      <c r="C307" t="s">
-        <v>29</v>
+      <c r="C307">
+        <v>0</v>
       </c>
       <c r="D307" t="s">
         <v>17</v>
@@ -17074,8 +17068,8 @@
       <c r="B308">
         <v>143</v>
       </c>
-      <c r="C308" t="s">
-        <v>29</v>
+      <c r="C308">
+        <v>0</v>
       </c>
       <c r="D308" t="s">
         <v>17</v>
@@ -17130,8 +17124,8 @@
       <c r="B309">
         <v>142</v>
       </c>
-      <c r="C309" t="s">
-        <v>29</v>
+      <c r="C309">
+        <v>0</v>
       </c>
       <c r="D309" t="s">
         <v>17</v>
@@ -17186,8 +17180,8 @@
       <c r="B310">
         <v>139</v>
       </c>
-      <c r="C310" t="s">
-        <v>29</v>
+      <c r="C310">
+        <v>0</v>
       </c>
       <c r="D310" t="s">
         <v>17</v>
@@ -17242,8 +17236,8 @@
       <c r="B311">
         <v>136</v>
       </c>
-      <c r="C311" t="s">
-        <v>29</v>
+      <c r="C311">
+        <v>0</v>
       </c>
       <c r="D311" t="s">
         <v>17</v>
@@ -17295,8 +17289,8 @@
       <c r="B312">
         <v>137</v>
       </c>
-      <c r="C312" t="s">
-        <v>29</v>
+      <c r="C312">
+        <v>0</v>
       </c>
       <c r="D312" t="s">
         <v>17</v>
@@ -17351,8 +17345,8 @@
       <c r="B313">
         <v>148</v>
       </c>
-      <c r="C313" t="s">
-        <v>29</v>
+      <c r="C313">
+        <v>0</v>
       </c>
       <c r="D313" t="s">
         <v>17</v>
@@ -17401,8 +17395,8 @@
       <c r="B314">
         <v>142</v>
       </c>
-      <c r="C314" t="s">
-        <v>29</v>
+      <c r="C314">
+        <v>0</v>
       </c>
       <c r="D314" t="s">
         <v>17</v>
@@ -17457,8 +17451,8 @@
       <c r="B315">
         <v>144</v>
       </c>
-      <c r="C315" t="s">
-        <v>29</v>
+      <c r="C315">
+        <v>0</v>
       </c>
       <c r="D315" t="s">
         <v>17</v>
@@ -17513,8 +17507,8 @@
       <c r="B316">
         <v>141</v>
       </c>
-      <c r="C316" t="s">
-        <v>29</v>
+      <c r="C316">
+        <v>0</v>
       </c>
       <c r="D316" t="s">
         <v>17</v>
@@ -17569,8 +17563,8 @@
       <c r="B317">
         <v>145</v>
       </c>
-      <c r="C317" t="s">
-        <v>29</v>
+      <c r="C317">
+        <v>0</v>
       </c>
       <c r="D317" t="s">
         <v>17</v>
@@ -17625,8 +17619,8 @@
       <c r="B318">
         <v>139</v>
       </c>
-      <c r="C318" t="s">
-        <v>29</v>
+      <c r="C318">
+        <v>0</v>
       </c>
       <c r="D318" t="s">
         <v>17</v>
@@ -17681,8 +17675,8 @@
       <c r="B319">
         <v>141</v>
       </c>
-      <c r="C319" t="s">
-        <v>29</v>
+      <c r="C319">
+        <v>0</v>
       </c>
       <c r="D319" t="s">
         <v>17</v>
@@ -17734,8 +17728,8 @@
       <c r="B320">
         <v>141</v>
       </c>
-      <c r="C320" t="s">
-        <v>29</v>
+      <c r="C320">
+        <v>0</v>
       </c>
       <c r="D320" t="s">
         <v>17</v>
@@ -17790,8 +17784,8 @@
       <c r="B321">
         <v>136</v>
       </c>
-      <c r="C321" t="s">
-        <v>29</v>
+      <c r="C321">
+        <v>0</v>
       </c>
       <c r="D321" t="s">
         <v>17</v>
@@ -17846,8 +17840,8 @@
       <c r="B322">
         <v>141</v>
       </c>
-      <c r="C322" t="s">
-        <v>29</v>
+      <c r="C322">
+        <v>0</v>
       </c>
       <c r="D322" t="s">
         <v>17</v>
@@ -17902,8 +17896,8 @@
       <c r="B323">
         <v>144</v>
       </c>
-      <c r="C323" t="s">
-        <v>29</v>
+      <c r="C323">
+        <v>0</v>
       </c>
       <c r="D323" t="s">
         <v>17</v>
@@ -17955,8 +17949,8 @@
       <c r="B324">
         <v>150</v>
       </c>
-      <c r="C324" t="s">
-        <v>29</v>
+      <c r="C324">
+        <v>0</v>
       </c>
       <c r="D324" t="s">
         <v>17</v>
@@ -18011,8 +18005,8 @@
       <c r="B325">
         <v>143</v>
       </c>
-      <c r="C325" t="s">
-        <v>29</v>
+      <c r="C325">
+        <v>0</v>
       </c>
       <c r="D325" t="s">
         <v>1</v>
@@ -18067,8 +18061,8 @@
       <c r="B326">
         <v>137</v>
       </c>
-      <c r="C326" t="s">
-        <v>29</v>
+      <c r="C326">
+        <v>0</v>
       </c>
       <c r="D326" t="s">
         <v>1</v>
@@ -18123,8 +18117,8 @@
       <c r="B327">
         <v>139</v>
       </c>
-      <c r="C327" t="s">
-        <v>29</v>
+      <c r="C327">
+        <v>0</v>
       </c>
       <c r="D327" t="s">
         <v>17</v>
@@ -18179,8 +18173,8 @@
       <c r="B328">
         <v>141</v>
       </c>
-      <c r="C328" t="s">
-        <v>29</v>
+      <c r="C328">
+        <v>0</v>
       </c>
       <c r="D328" t="s">
         <v>17</v>
@@ -18235,8 +18229,8 @@
       <c r="B329">
         <v>146</v>
       </c>
-      <c r="C329" t="s">
-        <v>29</v>
+      <c r="C329">
+        <v>0</v>
       </c>
       <c r="D329" t="s">
         <v>17</v>
@@ -18288,8 +18282,8 @@
       <c r="B330">
         <v>140</v>
       </c>
-      <c r="C330" t="s">
-        <v>29</v>
+      <c r="C330">
+        <v>0</v>
       </c>
       <c r="D330" t="s">
         <v>17</v>
@@ -18344,8 +18338,8 @@
       <c r="B331">
         <v>147</v>
       </c>
-      <c r="C331" t="s">
-        <v>29</v>
+      <c r="C331">
+        <v>0</v>
       </c>
       <c r="D331" t="s">
         <v>17</v>
@@ -18400,8 +18394,8 @@
       <c r="B332">
         <v>142</v>
       </c>
-      <c r="C332" t="s">
-        <v>29</v>
+      <c r="C332">
+        <v>0</v>
       </c>
       <c r="D332" t="s">
         <v>17</v>
@@ -18453,8 +18447,8 @@
       <c r="B333">
         <v>152</v>
       </c>
-      <c r="C333" t="s">
-        <v>29</v>
+      <c r="C333">
+        <v>0</v>
       </c>
       <c r="D333" t="s">
         <v>17</v>
@@ -18509,8 +18503,8 @@
       <c r="B334">
         <v>145</v>
       </c>
-      <c r="C334" t="s">
-        <v>29</v>
+      <c r="C334">
+        <v>0</v>
       </c>
       <c r="D334" t="s">
         <v>17</v>
@@ -18565,8 +18559,8 @@
       <c r="B335">
         <v>139</v>
       </c>
-      <c r="C335" t="s">
-        <v>29</v>
+      <c r="C335">
+        <v>0</v>
       </c>
       <c r="D335" t="s">
         <v>17</v>
@@ -18621,8 +18615,8 @@
       <c r="B336">
         <v>140</v>
       </c>
-      <c r="C336" t="s">
-        <v>29</v>
+      <c r="C336">
+        <v>0</v>
       </c>
       <c r="D336" t="s">
         <v>17</v>
@@ -18677,8 +18671,8 @@
       <c r="B337">
         <v>138</v>
       </c>
-      <c r="C337" t="s">
-        <v>29</v>
+      <c r="C337">
+        <v>0</v>
       </c>
       <c r="D337" t="s">
         <v>17</v>
@@ -18730,8 +18724,8 @@
       <c r="B338">
         <v>143</v>
       </c>
-      <c r="C338" t="s">
-        <v>29</v>
+      <c r="C338">
+        <v>0</v>
       </c>
       <c r="D338" t="s">
         <v>17</v>
@@ -18786,8 +18780,8 @@
       <c r="B339">
         <v>150</v>
       </c>
-      <c r="C339" t="s">
-        <v>29</v>
+      <c r="C339">
+        <v>0</v>
       </c>
       <c r="D339" t="s">
         <v>17</v>
@@ -18842,8 +18836,8 @@
       <c r="B340">
         <v>137</v>
       </c>
-      <c r="C340" t="s">
-        <v>29</v>
+      <c r="C340">
+        <v>0</v>
       </c>
       <c r="D340" t="s">
         <v>17</v>
@@ -18898,8 +18892,8 @@
       <c r="B341">
         <v>140</v>
       </c>
-      <c r="C341" t="s">
-        <v>29</v>
+      <c r="C341">
+        <v>0</v>
       </c>
       <c r="D341" t="s">
         <v>17</v>
@@ -18954,8 +18948,8 @@
       <c r="B342">
         <v>143</v>
       </c>
-      <c r="C342" t="s">
-        <v>29</v>
+      <c r="C342">
+        <v>0</v>
       </c>
       <c r="D342" t="s">
         <v>17</v>
@@ -19010,8 +19004,8 @@
       <c r="B343">
         <v>141</v>
       </c>
-      <c r="C343" t="s">
-        <v>29</v>
+      <c r="C343">
+        <v>0</v>
       </c>
       <c r="D343" t="s">
         <v>17</v>
@@ -19066,8 +19060,8 @@
       <c r="B344">
         <v>148</v>
       </c>
-      <c r="C344" t="s">
-        <v>29</v>
+      <c r="C344">
+        <v>0</v>
       </c>
       <c r="D344" t="s">
         <v>17</v>
@@ -19122,8 +19116,8 @@
       <c r="B345">
         <v>144</v>
       </c>
-      <c r="C345" t="s">
-        <v>29</v>
+      <c r="C345">
+        <v>0</v>
       </c>
       <c r="D345" t="s">
         <v>17</v>
@@ -19178,8 +19172,8 @@
       <c r="B346">
         <v>137</v>
       </c>
-      <c r="C346" t="s">
-        <v>29</v>
+      <c r="C346">
+        <v>0</v>
       </c>
       <c r="D346" t="s">
         <v>17</v>
@@ -19234,8 +19228,8 @@
       <c r="B347">
         <v>144</v>
       </c>
-      <c r="C347" t="s">
-        <v>29</v>
+      <c r="C347">
+        <v>0</v>
       </c>
       <c r="D347" t="s">
         <v>17</v>
@@ -19290,8 +19284,8 @@
       <c r="B348">
         <v>148</v>
       </c>
-      <c r="C348" t="s">
-        <v>29</v>
+      <c r="C348">
+        <v>0</v>
       </c>
       <c r="D348" t="s">
         <v>17</v>
@@ -19346,8 +19340,8 @@
       <c r="B349">
         <v>141</v>
       </c>
-      <c r="C349" t="s">
-        <v>29</v>
+      <c r="C349">
+        <v>0</v>
       </c>
       <c r="D349" t="s">
         <v>17</v>
@@ -19402,8 +19396,8 @@
       <c r="B350">
         <v>136</v>
       </c>
-      <c r="C350" t="s">
-        <v>29</v>
+      <c r="C350">
+        <v>0</v>
       </c>
       <c r="D350" t="s">
         <v>17</v>
@@ -19458,8 +19452,8 @@
       <c r="B351">
         <v>144</v>
       </c>
-      <c r="C351" t="s">
-        <v>29</v>
+      <c r="C351">
+        <v>0</v>
       </c>
       <c r="D351" t="s">
         <v>17</v>
@@ -19514,8 +19508,8 @@
       <c r="B352">
         <v>144</v>
       </c>
-      <c r="C352" t="s">
-        <v>29</v>
+      <c r="C352">
+        <v>0</v>
       </c>
       <c r="D352" t="s">
         <v>17</v>
@@ -19570,8 +19564,8 @@
       <c r="B353">
         <v>138</v>
       </c>
-      <c r="C353" t="s">
-        <v>29</v>
+      <c r="C353">
+        <v>0</v>
       </c>
       <c r="D353" t="s">
         <v>17</v>
@@ -19617,8 +19611,8 @@
       <c r="B354">
         <v>142</v>
       </c>
-      <c r="C354" t="s">
-        <v>29</v>
+      <c r="C354">
+        <v>0</v>
       </c>
       <c r="D354" t="s">
         <v>17</v>
@@ -19673,8 +19667,8 @@
       <c r="B355">
         <v>145</v>
       </c>
-      <c r="C355" t="s">
-        <v>29</v>
+      <c r="C355">
+        <v>0</v>
       </c>
       <c r="D355" t="s">
         <v>17</v>
@@ -19729,8 +19723,8 @@
       <c r="B356">
         <v>158</v>
       </c>
-      <c r="C356" t="s">
-        <v>29</v>
+      <c r="C356">
+        <v>0</v>
       </c>
       <c r="D356" t="s">
         <v>1</v>
@@ -19782,8 +19776,8 @@
       <c r="B357">
         <v>144</v>
       </c>
-      <c r="C357" t="s">
-        <v>29</v>
+      <c r="C357">
+        <v>0</v>
       </c>
       <c r="D357" t="s">
         <v>17</v>
@@ -19838,8 +19832,8 @@
       <c r="B358">
         <v>141</v>
       </c>
-      <c r="C358" t="s">
-        <v>29</v>
+      <c r="C358">
+        <v>0</v>
       </c>
       <c r="D358" t="s">
         <v>17</v>
@@ -19891,8 +19885,8 @@
       <c r="B359">
         <v>142</v>
       </c>
-      <c r="C359" t="s">
-        <v>29</v>
+      <c r="C359">
+        <v>0</v>
       </c>
       <c r="D359" t="s">
         <v>17</v>
@@ -19944,8 +19938,8 @@
       <c r="B360">
         <v>146</v>
       </c>
-      <c r="C360" t="s">
-        <v>29</v>
+      <c r="C360">
+        <v>0</v>
       </c>
       <c r="D360" t="s">
         <v>17</v>
@@ -20000,8 +19994,8 @@
       <c r="B361">
         <v>139</v>
       </c>
-      <c r="C361" t="s">
-        <v>29</v>
+      <c r="C361">
+        <v>0</v>
       </c>
       <c r="D361" t="s">
         <v>17</v>
@@ -20053,8 +20047,8 @@
       <c r="B362">
         <v>145</v>
       </c>
-      <c r="C362" t="s">
-        <v>29</v>
+      <c r="C362">
+        <v>0</v>
       </c>
       <c r="D362" t="s">
         <v>17</v>
@@ -20109,8 +20103,8 @@
       <c r="B363">
         <v>141</v>
       </c>
-      <c r="C363" t="s">
-        <v>29</v>
+      <c r="C363">
+        <v>0</v>
       </c>
       <c r="D363" t="s">
         <v>17</v>
@@ -20156,8 +20150,8 @@
       <c r="B364">
         <v>141</v>
       </c>
-      <c r="C364" t="s">
-        <v>29</v>
+      <c r="C364">
+        <v>0</v>
       </c>
       <c r="D364" t="s">
         <v>17</v>
@@ -20212,8 +20206,8 @@
       <c r="B365">
         <v>137</v>
       </c>
-      <c r="C365" t="s">
-        <v>29</v>
+      <c r="C365">
+        <v>0</v>
       </c>
       <c r="D365" t="s">
         <v>17</v>
@@ -20268,8 +20262,8 @@
       <c r="B366">
         <v>144</v>
       </c>
-      <c r="C366" t="s">
-        <v>29</v>
+      <c r="C366">
+        <v>0</v>
       </c>
       <c r="D366" t="s">
         <v>17</v>
@@ -20324,8 +20318,8 @@
       <c r="B367">
         <v>139</v>
       </c>
-      <c r="C367" t="s">
-        <v>29</v>
+      <c r="C367">
+        <v>0</v>
       </c>
       <c r="D367" t="s">
         <v>17</v>
@@ -20377,8 +20371,8 @@
       <c r="B368">
         <v>138</v>
       </c>
-      <c r="C368" t="s">
-        <v>29</v>
+      <c r="C368">
+        <v>0</v>
       </c>
       <c r="D368" t="s">
         <v>17</v>
@@ -20433,8 +20427,8 @@
       <c r="B369">
         <v>141</v>
       </c>
-      <c r="C369" t="s">
-        <v>29</v>
+      <c r="C369">
+        <v>0</v>
       </c>
       <c r="D369" t="s">
         <v>17</v>
@@ -20489,8 +20483,8 @@
       <c r="B370">
         <v>142</v>
       </c>
-      <c r="C370" t="s">
-        <v>29</v>
+      <c r="C370">
+        <v>0</v>
       </c>
       <c r="D370" t="s">
         <v>17</v>
@@ -20545,8 +20539,8 @@
       <c r="B371">
         <v>144</v>
       </c>
-      <c r="C371" t="s">
-        <v>29</v>
+      <c r="C371">
+        <v>0</v>
       </c>
       <c r="D371" t="s">
         <v>17</v>
@@ -20601,8 +20595,8 @@
       <c r="B372">
         <v>142</v>
       </c>
-      <c r="C372" t="s">
-        <v>29</v>
+      <c r="C372">
+        <v>0</v>
       </c>
       <c r="D372" t="s">
         <v>17</v>
@@ -20657,8 +20651,8 @@
       <c r="B373">
         <v>140</v>
       </c>
-      <c r="C373" t="s">
-        <v>29</v>
+      <c r="C373">
+        <v>0</v>
       </c>
       <c r="D373" t="s">
         <v>17</v>
@@ -20713,8 +20707,8 @@
       <c r="B374">
         <v>144</v>
       </c>
-      <c r="C374" t="s">
-        <v>29</v>
+      <c r="C374">
+        <v>0</v>
       </c>
       <c r="D374" t="s">
         <v>17</v>
@@ -20769,8 +20763,8 @@
       <c r="B375">
         <v>144</v>
       </c>
-      <c r="C375" t="s">
-        <v>29</v>
+      <c r="C375">
+        <v>0</v>
       </c>
       <c r="D375" t="s">
         <v>17</v>
@@ -20825,8 +20819,8 @@
       <c r="B376">
         <v>139</v>
       </c>
-      <c r="C376" t="s">
-        <v>29</v>
+      <c r="C376">
+        <v>0</v>
       </c>
       <c r="D376" t="s">
         <v>17</v>
@@ -20881,8 +20875,8 @@
       <c r="B377">
         <v>147</v>
       </c>
-      <c r="C377" t="s">
-        <v>29</v>
+      <c r="C377">
+        <v>0</v>
       </c>
       <c r="D377" t="s">
         <v>17</v>
@@ -20937,8 +20931,8 @@
       <c r="B378">
         <v>142</v>
       </c>
-      <c r="C378" t="s">
-        <v>29</v>
+      <c r="C378">
+        <v>0</v>
       </c>
       <c r="D378" t="s">
         <v>17</v>
@@ -20993,8 +20987,8 @@
       <c r="B379">
         <v>144</v>
       </c>
-      <c r="C379" t="s">
-        <v>29</v>
+      <c r="C379">
+        <v>0</v>
       </c>
       <c r="D379" t="s">
         <v>17</v>
@@ -21049,8 +21043,8 @@
       <c r="B380">
         <v>144</v>
       </c>
-      <c r="C380" t="s">
-        <v>29</v>
+      <c r="C380">
+        <v>0</v>
       </c>
       <c r="D380" t="s">
         <v>17</v>
@@ -21105,8 +21099,8 @@
       <c r="B381">
         <v>139</v>
       </c>
-      <c r="C381" t="s">
-        <v>29</v>
+      <c r="C381">
+        <v>0</v>
       </c>
       <c r="D381" t="s">
         <v>17</v>
@@ -21161,8 +21155,8 @@
       <c r="B382">
         <v>138</v>
       </c>
-      <c r="C382" t="s">
-        <v>29</v>
+      <c r="C382">
+        <v>0</v>
       </c>
       <c r="D382" t="s">
         <v>17</v>
@@ -21217,8 +21211,8 @@
       <c r="B383">
         <v>146</v>
       </c>
-      <c r="C383" t="s">
-        <v>29</v>
+      <c r="C383">
+        <v>0</v>
       </c>
       <c r="D383" t="s">
         <v>17</v>
@@ -21273,8 +21267,8 @@
       <c r="B384">
         <v>139</v>
       </c>
-      <c r="C384" t="s">
-        <v>29</v>
+      <c r="C384">
+        <v>0</v>
       </c>
       <c r="D384" t="s">
         <v>17</v>
@@ -21308,8 +21302,8 @@
       <c r="B385">
         <v>139</v>
       </c>
-      <c r="C385" t="s">
-        <v>29</v>
+      <c r="C385">
+        <v>0</v>
       </c>
       <c r="D385" t="s">
         <v>17</v>
@@ -21364,8 +21358,8 @@
       <c r="B386">
         <v>140</v>
       </c>
-      <c r="C386" t="s">
-        <v>29</v>
+      <c r="C386">
+        <v>0</v>
       </c>
       <c r="D386" t="s">
         <v>17</v>
@@ -21420,8 +21414,8 @@
       <c r="B387">
         <v>146</v>
       </c>
-      <c r="C387" t="s">
-        <v>29</v>
+      <c r="C387">
+        <v>0</v>
       </c>
       <c r="D387" t="s">
         <v>17</v>
@@ -21476,8 +21470,8 @@
       <c r="B388">
         <v>149</v>
       </c>
-      <c r="C388" t="s">
-        <v>29</v>
+      <c r="C388">
+        <v>0</v>
       </c>
       <c r="D388" t="s">
         <v>17</v>
@@ -21532,8 +21526,8 @@
       <c r="B389">
         <v>137</v>
       </c>
-      <c r="C389" t="s">
-        <v>29</v>
+      <c r="C389">
+        <v>0</v>
       </c>
       <c r="D389" t="s">
         <v>17</v>
@@ -21588,8 +21582,8 @@
       <c r="B390">
         <v>145</v>
       </c>
-      <c r="C390" t="s">
-        <v>29</v>
+      <c r="C390">
+        <v>0</v>
       </c>
       <c r="D390" t="s">
         <v>17</v>
@@ -21644,8 +21638,8 @@
       <c r="B391">
         <v>142</v>
       </c>
-      <c r="C391" t="s">
-        <v>29</v>
+      <c r="C391">
+        <v>0</v>
       </c>
       <c r="D391" t="s">
         <v>17</v>
@@ -21682,8 +21676,8 @@
       <c r="B392">
         <v>145</v>
       </c>
-      <c r="C392" t="s">
-        <v>29</v>
+      <c r="C392">
+        <v>0</v>
       </c>
       <c r="D392" t="s">
         <v>17</v>
@@ -21738,8 +21732,8 @@
       <c r="B393">
         <v>141</v>
       </c>
-      <c r="C393" t="s">
-        <v>29</v>
+      <c r="C393">
+        <v>0</v>
       </c>
       <c r="D393" t="s">
         <v>17</v>
@@ -21794,8 +21788,8 @@
       <c r="B394">
         <v>138</v>
       </c>
-      <c r="C394" t="s">
-        <v>29</v>
+      <c r="C394">
+        <v>0</v>
       </c>
       <c r="D394" t="s">
         <v>17</v>
@@ -21850,8 +21844,8 @@
       <c r="B395">
         <v>142</v>
       </c>
-      <c r="C395" t="s">
-        <v>29</v>
+      <c r="C395">
+        <v>0</v>
       </c>
       <c r="D395" t="s">
         <v>17</v>
@@ -21903,8 +21897,8 @@
       <c r="B396">
         <v>147</v>
       </c>
-      <c r="C396" t="s">
-        <v>29</v>
+      <c r="C396">
+        <v>0</v>
       </c>
       <c r="D396" t="s">
         <v>17</v>
@@ -21959,8 +21953,8 @@
       <c r="B397">
         <v>143</v>
       </c>
-      <c r="C397" t="s">
-        <v>29</v>
+      <c r="C397">
+        <v>0</v>
       </c>
       <c r="D397" t="s">
         <v>17</v>
@@ -22015,8 +22009,8 @@
       <c r="B398">
         <v>138</v>
       </c>
-      <c r="C398" t="s">
-        <v>29</v>
+      <c r="C398">
+        <v>0</v>
       </c>
       <c r="D398" t="s">
         <v>17</v>
@@ -22071,8 +22065,8 @@
       <c r="B399">
         <v>143</v>
       </c>
-      <c r="C399" t="s">
-        <v>29</v>
+      <c r="C399">
+        <v>0</v>
       </c>
       <c r="D399" t="s">
         <v>17</v>
@@ -22127,8 +22121,8 @@
       <c r="B400">
         <v>138</v>
       </c>
-      <c r="C400" t="s">
-        <v>29</v>
+      <c r="C400">
+        <v>0</v>
       </c>
       <c r="D400" t="s">
         <v>17</v>
@@ -22183,8 +22177,8 @@
       <c r="B401">
         <v>143</v>
       </c>
-      <c r="C401" t="s">
-        <v>29</v>
+      <c r="C401">
+        <v>0</v>
       </c>
       <c r="D401" t="s">
         <v>17</v>
@@ -22239,8 +22233,8 @@
       <c r="B402">
         <v>139</v>
       </c>
-      <c r="C402" t="s">
-        <v>29</v>
+      <c r="C402">
+        <v>0</v>
       </c>
       <c r="D402" t="s">
         <v>17</v>
@@ -22295,8 +22289,8 @@
       <c r="B403">
         <v>139</v>
       </c>
-      <c r="C403" t="s">
-        <v>29</v>
+      <c r="C403">
+        <v>0</v>
       </c>
       <c r="D403" t="s">
         <v>17</v>
@@ -22351,8 +22345,8 @@
       <c r="B404">
         <v>144</v>
       </c>
-      <c r="C404" t="s">
-        <v>29</v>
+      <c r="C404">
+        <v>0</v>
       </c>
       <c r="D404" t="s">
         <v>17</v>
@@ -22407,8 +22401,8 @@
       <c r="B405">
         <v>145</v>
       </c>
-      <c r="C405" t="s">
-        <v>29</v>
+      <c r="C405">
+        <v>0</v>
       </c>
       <c r="D405" t="s">
         <v>17</v>
@@ -22463,8 +22457,8 @@
       <c r="B406">
         <v>139</v>
       </c>
-      <c r="C406" t="s">
-        <v>29</v>
+      <c r="C406">
+        <v>0</v>
       </c>
       <c r="D406" t="s">
         <v>17</v>
@@ -22519,8 +22513,8 @@
       <c r="B407">
         <v>136</v>
       </c>
-      <c r="C407" t="s">
-        <v>29</v>
+      <c r="C407">
+        <v>0</v>
       </c>
       <c r="D407" t="s">
         <v>17</v>
@@ -22572,8 +22566,8 @@
       <c r="B408">
         <v>141</v>
       </c>
-      <c r="C408" t="s">
-        <v>29</v>
+      <c r="C408">
+        <v>0</v>
       </c>
       <c r="D408" t="s">
         <v>17</v>
@@ -22628,8 +22622,8 @@
       <c r="B409">
         <v>142</v>
       </c>
-      <c r="C409" t="s">
-        <v>29</v>
+      <c r="C409">
+        <v>0</v>
       </c>
       <c r="D409" t="s">
         <v>17</v>
@@ -22684,8 +22678,8 @@
       <c r="B410">
         <v>139</v>
       </c>
-      <c r="C410" t="s">
-        <v>29</v>
+      <c r="C410">
+        <v>0</v>
       </c>
       <c r="D410" t="s">
         <v>17</v>
@@ -22737,8 +22731,8 @@
       <c r="B411">
         <v>141</v>
       </c>
-      <c r="C411" t="s">
-        <v>29</v>
+      <c r="C411">
+        <v>0</v>
       </c>
       <c r="D411" t="s">
         <v>17</v>
@@ -22793,8 +22787,8 @@
       <c r="B412">
         <v>148</v>
       </c>
-      <c r="C412" t="s">
-        <v>29</v>
+      <c r="C412">
+        <v>0</v>
       </c>
       <c r="D412" t="s">
         <v>17</v>
@@ -22846,8 +22840,8 @@
       <c r="B413">
         <v>144</v>
       </c>
-      <c r="C413" t="s">
-        <v>29</v>
+      <c r="C413">
+        <v>0</v>
       </c>
       <c r="D413" t="s">
         <v>17</v>
@@ -22899,8 +22893,8 @@
       <c r="B414">
         <v>139</v>
       </c>
-      <c r="C414" t="s">
-        <v>29</v>
+      <c r="C414">
+        <v>0</v>
       </c>
       <c r="D414" t="s">
         <v>17</v>
@@ -22955,8 +22949,8 @@
       <c r="B415">
         <v>143</v>
       </c>
-      <c r="C415" t="s">
-        <v>29</v>
+      <c r="C415">
+        <v>0</v>
       </c>
       <c r="D415" t="s">
         <v>17</v>
@@ -23011,8 +23005,8 @@
       <c r="B416">
         <v>141</v>
       </c>
-      <c r="C416" t="s">
-        <v>29</v>
+      <c r="C416">
+        <v>0</v>
       </c>
       <c r="D416" t="s">
         <v>17</v>
@@ -23067,8 +23061,8 @@
       <c r="B417">
         <v>140</v>
       </c>
-      <c r="C417" t="s">
-        <v>29</v>
+      <c r="C417">
+        <v>0</v>
       </c>
       <c r="D417" t="s">
         <v>17</v>
@@ -23123,8 +23117,8 @@
       <c r="B418">
         <v>144</v>
       </c>
-      <c r="C418" t="s">
-        <v>29</v>
+      <c r="C418">
+        <v>0</v>
       </c>
       <c r="D418" t="s">
         <v>17</v>
@@ -23179,8 +23173,8 @@
       <c r="B419">
         <v>139</v>
       </c>
-      <c r="C419" t="s">
-        <v>29</v>
+      <c r="C419">
+        <v>0</v>
       </c>
       <c r="D419" t="s">
         <v>17</v>
@@ -23235,8 +23229,8 @@
       <c r="B420">
         <v>140</v>
       </c>
-      <c r="C420" t="s">
-        <v>29</v>
+      <c r="C420">
+        <v>0</v>
       </c>
       <c r="D420" t="s">
         <v>17</v>
@@ -23291,8 +23285,8 @@
       <c r="B421">
         <v>139</v>
       </c>
-      <c r="C421" t="s">
-        <v>29</v>
+      <c r="C421">
+        <v>0</v>
       </c>
       <c r="D421" t="s">
         <v>17</v>
@@ -23347,8 +23341,8 @@
       <c r="B422">
         <v>155</v>
       </c>
-      <c r="C422" t="s">
-        <v>29</v>
+      <c r="C422">
+        <v>0</v>
       </c>
       <c r="D422" t="s">
         <v>17</v>
@@ -23403,8 +23397,8 @@
       <c r="B423">
         <v>140</v>
       </c>
-      <c r="C423" t="s">
-        <v>29</v>
+      <c r="C423">
+        <v>0</v>
       </c>
       <c r="D423" t="s">
         <v>17</v>
@@ -23459,8 +23453,8 @@
       <c r="B424">
         <v>136</v>
       </c>
-      <c r="C424" t="s">
-        <v>29</v>
+      <c r="C424">
+        <v>0</v>
       </c>
       <c r="D424" t="s">
         <v>17</v>
@@ -23512,8 +23506,8 @@
       <c r="B425">
         <v>139</v>
       </c>
-      <c r="C425" t="s">
-        <v>29</v>
+      <c r="C425">
+        <v>0</v>
       </c>
       <c r="D425" t="s">
         <v>17</v>
@@ -23568,8 +23562,8 @@
       <c r="B426">
         <v>138</v>
       </c>
-      <c r="C426" t="s">
-        <v>29</v>
+      <c r="C426">
+        <v>0</v>
       </c>
       <c r="D426" t="s">
         <v>17</v>
@@ -23624,8 +23618,8 @@
       <c r="B427">
         <v>143</v>
       </c>
-      <c r="C427" t="s">
-        <v>29</v>
+      <c r="C427">
+        <v>0</v>
       </c>
       <c r="D427" t="s">
         <v>17</v>
@@ -23677,8 +23671,8 @@
       <c r="B428">
         <v>132</v>
       </c>
-      <c r="C428" t="s">
-        <v>30</v>
+      <c r="C428">
+        <v>1</v>
       </c>
       <c r="D428" t="s">
         <v>17</v>
@@ -23715,8 +23709,8 @@
       <c r="B429">
         <v>134</v>
       </c>
-      <c r="C429" t="s">
-        <v>30</v>
+      <c r="C429">
+        <v>1</v>
       </c>
       <c r="D429" t="s">
         <v>1</v>
@@ -23756,8 +23750,8 @@
       <c r="B430">
         <v>134</v>
       </c>
-      <c r="C430" t="s">
-        <v>30</v>
+      <c r="C430">
+        <v>1</v>
       </c>
       <c r="D430" t="s">
         <v>17</v>
@@ -23803,8 +23797,8 @@
       <c r="B431">
         <v>134</v>
       </c>
-      <c r="C431" t="s">
-        <v>30</v>
+      <c r="C431">
+        <v>1</v>
       </c>
       <c r="D431" t="s">
         <v>1</v>
@@ -23859,8 +23853,8 @@
       <c r="B432">
         <v>133</v>
       </c>
-      <c r="C432" t="s">
-        <v>30</v>
+      <c r="C432">
+        <v>1</v>
       </c>
       <c r="D432" t="s">
         <v>1</v>
@@ -23915,8 +23909,8 @@
       <c r="B433">
         <v>132</v>
       </c>
-      <c r="C433" t="s">
-        <v>30</v>
+      <c r="C433">
+        <v>1</v>
       </c>
       <c r="D433" t="s">
         <v>1</v>
@@ -23971,8 +23965,8 @@
       <c r="B434">
         <v>134</v>
       </c>
-      <c r="C434" t="s">
-        <v>30</v>
+      <c r="C434">
+        <v>1</v>
       </c>
       <c r="D434" t="s">
         <v>1</v>
@@ -24027,8 +24021,8 @@
       <c r="B435">
         <v>134</v>
       </c>
-      <c r="C435" t="s">
-        <v>30</v>
+      <c r="C435">
+        <v>1</v>
       </c>
       <c r="D435" t="s">
         <v>1</v>
@@ -24074,8 +24068,8 @@
       <c r="B436">
         <v>135</v>
       </c>
-      <c r="C436" t="s">
-        <v>30</v>
+      <c r="C436">
+        <v>1</v>
       </c>
       <c r="D436" t="s">
         <v>1</v>
@@ -24130,8 +24124,8 @@
       <c r="B437">
         <v>134</v>
       </c>
-      <c r="C437" t="s">
-        <v>30</v>
+      <c r="C437">
+        <v>1</v>
       </c>
       <c r="D437" t="s">
         <v>1</v>
@@ -24183,8 +24177,8 @@
       <c r="B438">
         <v>134</v>
       </c>
-      <c r="C438" t="s">
-        <v>30</v>
+      <c r="C438">
+        <v>1</v>
       </c>
       <c r="D438" t="s">
         <v>1</v>
@@ -24236,8 +24230,8 @@
       <c r="B439">
         <v>135</v>
       </c>
-      <c r="C439" t="s">
-        <v>30</v>
+      <c r="C439">
+        <v>1</v>
       </c>
       <c r="D439" t="s">
         <v>1</v>
@@ -24292,8 +24286,8 @@
       <c r="B440">
         <v>133</v>
       </c>
-      <c r="C440" t="s">
-        <v>30</v>
+      <c r="C440">
+        <v>1</v>
       </c>
       <c r="D440" t="s">
         <v>1</v>
@@ -24348,8 +24342,8 @@
       <c r="B441">
         <v>131</v>
       </c>
-      <c r="C441" t="s">
-        <v>30</v>
+      <c r="C441">
+        <v>1</v>
       </c>
       <c r="D441" t="s">
         <v>1</v>
@@ -24404,8 +24398,8 @@
       <c r="B442">
         <v>130</v>
       </c>
-      <c r="C442" t="s">
-        <v>30</v>
+      <c r="C442">
+        <v>1</v>
       </c>
       <c r="D442" t="s">
         <v>1</v>
@@ -24460,8 +24454,8 @@
       <c r="B443">
         <v>128</v>
       </c>
-      <c r="C443" t="s">
-        <v>30</v>
+      <c r="C443">
+        <v>1</v>
       </c>
       <c r="D443" t="s">
         <v>1</v>
@@ -24513,8 +24507,8 @@
       <c r="B444">
         <v>134</v>
       </c>
-      <c r="C444" t="s">
-        <v>30</v>
+      <c r="C444">
+        <v>1</v>
       </c>
       <c r="D444" t="s">
         <v>1</v>
@@ -24569,8 +24563,8 @@
       <c r="B445">
         <v>131</v>
       </c>
-      <c r="C445" t="s">
-        <v>30</v>
+      <c r="C445">
+        <v>1</v>
       </c>
       <c r="D445" t="s">
         <v>1</v>
@@ -24625,8 +24619,8 @@
       <c r="B446">
         <v>114</v>
       </c>
-      <c r="C446" t="s">
-        <v>30</v>
+      <c r="C446">
+        <v>1</v>
       </c>
       <c r="D446" t="s">
         <v>1</v>
@@ -24681,8 +24675,8 @@
       <c r="B447">
         <v>133</v>
       </c>
-      <c r="C447" t="s">
-        <v>30</v>
+      <c r="C447">
+        <v>1</v>
       </c>
       <c r="D447" t="s">
         <v>1</v>
@@ -24737,8 +24731,8 @@
       <c r="B448">
         <v>131</v>
       </c>
-      <c r="C448" t="s">
-        <v>30</v>
+      <c r="C448">
+        <v>1</v>
       </c>
       <c r="D448" t="s">
         <v>1</v>
@@ -24793,8 +24787,8 @@
       <c r="B449">
         <v>125</v>
       </c>
-      <c r="C449" t="s">
-        <v>30</v>
+      <c r="C449">
+        <v>1</v>
       </c>
       <c r="D449" t="s">
         <v>1</v>
@@ -24849,8 +24843,8 @@
       <c r="B450">
         <v>132</v>
       </c>
-      <c r="C450" t="s">
-        <v>30</v>
+      <c r="C450">
+        <v>1</v>
       </c>
       <c r="D450" t="s">
         <v>1</v>
@@ -24905,8 +24899,8 @@
       <c r="B451">
         <v>133</v>
       </c>
-      <c r="C451" t="s">
-        <v>30</v>
+      <c r="C451">
+        <v>1</v>
       </c>
       <c r="D451" t="s">
         <v>1</v>
@@ -24961,8 +24955,8 @@
       <c r="B452">
         <v>135</v>
       </c>
-      <c r="C452" t="s">
-        <v>30</v>
+      <c r="C452">
+        <v>1</v>
       </c>
       <c r="D452" t="s">
         <v>1</v>
@@ -25017,8 +25011,8 @@
       <c r="B453">
         <v>133</v>
       </c>
-      <c r="C453" t="s">
-        <v>30</v>
+      <c r="C453">
+        <v>1</v>
       </c>
       <c r="D453" t="s">
         <v>1</v>
@@ -25070,8 +25064,8 @@
       <c r="B454">
         <v>133</v>
       </c>
-      <c r="C454" t="s">
-        <v>30</v>
+      <c r="C454">
+        <v>1</v>
       </c>
       <c r="D454" t="s">
         <v>1</v>
@@ -25126,8 +25120,8 @@
       <c r="B455">
         <v>131</v>
       </c>
-      <c r="C455" t="s">
-        <v>30</v>
+      <c r="C455">
+        <v>1</v>
       </c>
       <c r="D455" t="s">
         <v>1</v>
@@ -25182,8 +25176,8 @@
       <c r="B456">
         <v>135</v>
       </c>
-      <c r="C456" t="s">
-        <v>30</v>
+      <c r="C456">
+        <v>1</v>
       </c>
       <c r="D456" t="s">
         <v>1</v>
@@ -25238,8 +25232,8 @@
       <c r="B457">
         <v>135</v>
       </c>
-      <c r="C457" t="s">
-        <v>30</v>
+      <c r="C457">
+        <v>1</v>
       </c>
       <c r="D457" t="s">
         <v>17</v>
@@ -25294,8 +25288,8 @@
       <c r="B458">
         <v>135</v>
       </c>
-      <c r="C458" t="s">
-        <v>30</v>
+      <c r="C458">
+        <v>1</v>
       </c>
       <c r="D458" t="s">
         <v>1</v>
@@ -25347,8 +25341,8 @@
       <c r="B459">
         <v>118</v>
       </c>
-      <c r="C459" t="s">
-        <v>30</v>
+      <c r="C459">
+        <v>1</v>
       </c>
       <c r="D459" t="s">
         <v>17</v>
@@ -25403,8 +25397,8 @@
       <c r="B460">
         <v>133</v>
       </c>
-      <c r="C460" t="s">
-        <v>30</v>
+      <c r="C460">
+        <v>1</v>
       </c>
       <c r="D460" t="s">
         <v>1</v>
@@ -25459,8 +25453,8 @@
       <c r="B461">
         <v>134</v>
       </c>
-      <c r="C461" t="s">
-        <v>30</v>
+      <c r="C461">
+        <v>1</v>
       </c>
       <c r="D461" t="s">
         <v>1</v>
@@ -25515,8 +25509,8 @@
       <c r="B462">
         <v>135</v>
       </c>
-      <c r="C462" t="s">
-        <v>30</v>
+      <c r="C462">
+        <v>1</v>
       </c>
       <c r="D462" t="s">
         <v>1</v>
@@ -25568,8 +25562,8 @@
       <c r="B463">
         <v>133</v>
       </c>
-      <c r="C463" t="s">
-        <v>30</v>
+      <c r="C463">
+        <v>1</v>
       </c>
       <c r="D463" t="s">
         <v>1</v>
@@ -25624,8 +25618,8 @@
       <c r="B464">
         <v>135</v>
       </c>
-      <c r="C464" t="s">
-        <v>30</v>
+      <c r="C464">
+        <v>1</v>
       </c>
       <c r="D464" t="s">
         <v>1</v>
@@ -25680,8 +25674,8 @@
       <c r="B465">
         <v>133</v>
       </c>
-      <c r="C465" t="s">
-        <v>30</v>
+      <c r="C465">
+        <v>1</v>
       </c>
       <c r="D465" t="s">
         <v>17</v>
@@ -25736,8 +25730,8 @@
       <c r="B466">
         <v>133</v>
       </c>
-      <c r="C466" t="s">
-        <v>30</v>
+      <c r="C466">
+        <v>1</v>
       </c>
       <c r="D466" t="s">
         <v>17</v>
@@ -25789,8 +25783,8 @@
       <c r="B467">
         <v>130</v>
       </c>
-      <c r="C467" t="s">
-        <v>30</v>
+      <c r="C467">
+        <v>1</v>
       </c>
       <c r="D467" t="s">
         <v>1</v>
@@ -25845,8 +25839,8 @@
       <c r="B468">
         <v>135</v>
       </c>
-      <c r="C468" t="s">
-        <v>30</v>
+      <c r="C468">
+        <v>1</v>
       </c>
       <c r="D468" t="s">
         <v>1</v>
@@ -25883,8 +25877,8 @@
       <c r="B469">
         <v>134</v>
       </c>
-      <c r="C469" t="s">
-        <v>30</v>
+      <c r="C469">
+        <v>1</v>
       </c>
       <c r="D469" t="s">
         <v>17</v>
@@ -25939,8 +25933,8 @@
       <c r="B470">
         <v>134</v>
       </c>
-      <c r="C470" t="s">
-        <v>30</v>
+      <c r="C470">
+        <v>1</v>
       </c>
       <c r="D470" t="s">
         <v>17</v>
@@ -25995,8 +25989,8 @@
       <c r="B471">
         <v>135</v>
       </c>
-      <c r="C471" t="s">
-        <v>30</v>
+      <c r="C471">
+        <v>1</v>
       </c>
       <c r="D471" t="s">
         <v>1</v>
@@ -26051,8 +26045,8 @@
       <c r="B472">
         <v>135</v>
       </c>
-      <c r="C472" t="s">
-        <v>30</v>
+      <c r="C472">
+        <v>1</v>
       </c>
       <c r="D472" t="s">
         <v>17</v>
@@ -26107,8 +26101,8 @@
       <c r="B473">
         <v>128</v>
       </c>
-      <c r="C473" t="s">
-        <v>30</v>
+      <c r="C473">
+        <v>1</v>
       </c>
       <c r="D473" t="s">
         <v>17</v>
@@ -26163,8 +26157,8 @@
       <c r="B474">
         <v>134</v>
       </c>
-      <c r="C474" t="s">
-        <v>30</v>
+      <c r="C474">
+        <v>1</v>
       </c>
       <c r="D474" t="s">
         <v>17</v>
@@ -26216,8 +26210,8 @@
       <c r="B475">
         <v>135</v>
       </c>
-      <c r="C475" t="s">
-        <v>30</v>
+      <c r="C475">
+        <v>1</v>
       </c>
       <c r="D475" t="s">
         <v>17</v>
@@ -26272,8 +26266,8 @@
       <c r="B476">
         <v>119</v>
       </c>
-      <c r="C476" t="s">
-        <v>30</v>
+      <c r="C476">
+        <v>1</v>
       </c>
       <c r="D476" t="s">
         <v>1</v>
@@ -26328,8 +26322,8 @@
       <c r="B477">
         <v>135</v>
       </c>
-      <c r="C477" t="s">
-        <v>30</v>
+      <c r="C477">
+        <v>1</v>
       </c>
       <c r="D477" t="s">
         <v>17</v>
@@ -26384,8 +26378,8 @@
       <c r="B478">
         <v>135</v>
       </c>
-      <c r="C478" t="s">
-        <v>30</v>
+      <c r="C478">
+        <v>1</v>
       </c>
       <c r="D478" t="s">
         <v>17</v>
@@ -26440,8 +26434,8 @@
       <c r="B479">
         <v>135</v>
       </c>
-      <c r="C479" t="s">
-        <v>30</v>
+      <c r="C479">
+        <v>1</v>
       </c>
       <c r="D479" t="s">
         <v>17</v>
@@ -26493,8 +26487,8 @@
       <c r="B480">
         <v>132</v>
       </c>
-      <c r="C480" t="s">
-        <v>30</v>
+      <c r="C480">
+        <v>1</v>
       </c>
       <c r="D480" t="s">
         <v>17</v>
@@ -26549,8 +26543,8 @@
       <c r="B481">
         <v>135</v>
       </c>
-      <c r="C481" t="s">
-        <v>30</v>
+      <c r="C481">
+        <v>1</v>
       </c>
       <c r="D481" t="s">
         <v>17</v>
@@ -26605,8 +26599,8 @@
       <c r="B482">
         <v>131</v>
       </c>
-      <c r="C482" t="s">
-        <v>30</v>
+      <c r="C482">
+        <v>1</v>
       </c>
       <c r="D482" t="s">
         <v>17</v>
@@ -26661,8 +26655,8 @@
       <c r="B483">
         <v>134</v>
       </c>
-      <c r="C483" t="s">
-        <v>30</v>
+      <c r="C483">
+        <v>1</v>
       </c>
       <c r="D483" t="s">
         <v>17</v>
@@ -26717,8 +26711,8 @@
       <c r="B484">
         <v>130</v>
       </c>
-      <c r="C484" t="s">
-        <v>30</v>
+      <c r="C484">
+        <v>1</v>
       </c>
       <c r="D484" t="s">
         <v>17</v>
@@ -26773,8 +26767,8 @@
       <c r="B485">
         <v>133</v>
       </c>
-      <c r="C485" t="s">
-        <v>30</v>
+      <c r="C485">
+        <v>1</v>
       </c>
       <c r="D485" t="s">
         <v>17</v>
@@ -26829,8 +26823,8 @@
       <c r="B486">
         <v>128</v>
       </c>
-      <c r="C486" t="s">
-        <v>30</v>
+      <c r="C486">
+        <v>1</v>
       </c>
       <c r="D486" t="s">
         <v>17</v>
@@ -26885,8 +26879,8 @@
       <c r="B487">
         <v>133</v>
       </c>
-      <c r="C487" t="s">
-        <v>30</v>
+      <c r="C487">
+        <v>1</v>
       </c>
       <c r="D487" t="s">
         <v>17</v>
@@ -26941,8 +26935,8 @@
       <c r="B488">
         <v>131</v>
       </c>
-      <c r="C488" t="s">
-        <v>30</v>
+      <c r="C488">
+        <v>1</v>
       </c>
       <c r="D488" t="s">
         <v>17</v>
@@ -26997,8 +26991,8 @@
       <c r="B489">
         <v>135</v>
       </c>
-      <c r="C489" t="s">
-        <v>30</v>
+      <c r="C489">
+        <v>1</v>
       </c>
       <c r="D489" t="s">
         <v>17</v>

--- a/downloads/data/marathon.xlsx
+++ b/downloads/data/marathon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>urit3p</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>nas135</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <dimension ref="A1:R489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,8 +446,11 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
